--- a/db_28_0_excel/Occupation Data.xlsx
+++ b/db_28_0_excel/Occupation Data.xlsx
@@ -1,19 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidlelis/Code/DataAnalytics_CAP6768/db_28_0_excel/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A92D12D9-0F06-C14A-A1F0-0B0F20F2C0CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="740" windowWidth="16100" windowHeight="15900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Occupation Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Occupation Data'!$A$1:$C$1017</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Occupation Data'!$A$1:$C$1017</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Occupation Data'!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -9176,8 +9196,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9254,13 +9274,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -9298,7 +9326,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -9332,6 +9360,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -9366,9 +9395,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -9541,7 +9571,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C1017"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -9549,14 +9579,14 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="56.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="56.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" ht="31" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -9567,7 +9597,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" ht="90" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -9578,7 +9608,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -9589,7 +9619,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" ht="120" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -9600,7 +9630,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -9611,7 +9641,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -9622,7 +9652,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" ht="105" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -9633,7 +9663,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" ht="90" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -9644,7 +9674,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
@@ -9655,7 +9685,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
@@ -9666,7 +9696,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
@@ -9677,7 +9707,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>33</v>
       </c>
@@ -9688,7 +9718,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>36</v>
       </c>
@@ -9699,7 +9729,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>39</v>
       </c>
@@ -9710,7 +9740,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>42</v>
       </c>
@@ -9721,7 +9751,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>45</v>
       </c>
@@ -9732,7 +9762,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>48</v>
       </c>
@@ -9743,7 +9773,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>51</v>
       </c>
@@ -9754,7 +9784,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>54</v>
       </c>
@@ -9765,7 +9795,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>57</v>
       </c>
@@ -9776,7 +9806,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>60</v>
       </c>
@@ -9787,7 +9817,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>63</v>
       </c>
@@ -9798,7 +9828,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>66</v>
       </c>
@@ -9809,7 +9839,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>69</v>
       </c>
@@ -9820,7 +9850,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>72</v>
       </c>
@@ -9831,7 +9861,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" ht="90" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>75</v>
       </c>
@@ -9842,7 +9872,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>78</v>
       </c>
@@ -9853,7 +9883,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>81</v>
       </c>
@@ -9864,7 +9894,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>84</v>
       </c>
@@ -9875,7 +9905,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" ht="105" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>87</v>
       </c>
@@ -9886,7 +9916,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" ht="90" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>90</v>
       </c>
@@ -9897,7 +9927,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>93</v>
       </c>
@@ -9908,7 +9938,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>96</v>
       </c>
@@ -9919,7 +9949,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>99</v>
       </c>
@@ -9930,7 +9960,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>102</v>
       </c>
@@ -9941,7 +9971,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>105</v>
       </c>
@@ -9952,7 +9982,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>108</v>
       </c>
@@ -9963,7 +9993,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>111</v>
       </c>
@@ -9974,7 +10004,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>114</v>
       </c>
@@ -9985,7 +10015,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>117</v>
       </c>
@@ -9996,7 +10026,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>120</v>
       </c>
@@ -10007,7 +10037,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>123</v>
       </c>
@@ -10018,7 +10048,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>126</v>
       </c>
@@ -10029,7 +10059,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>129</v>
       </c>
@@ -10040,7 +10070,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>132</v>
       </c>
@@ -10051,7 +10081,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>135</v>
       </c>
@@ -10062,7 +10092,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>138</v>
       </c>
@@ -10073,7 +10103,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>141</v>
       </c>
@@ -10084,7 +10114,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>144</v>
       </c>
@@ -10095,7 +10125,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>147</v>
       </c>
@@ -10106,7 +10136,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>150</v>
       </c>
@@ -10117,7 +10147,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>153</v>
       </c>
@@ -10128,7 +10158,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>156</v>
       </c>
@@ -10139,7 +10169,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>159</v>
       </c>
@@ -10150,7 +10180,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>162</v>
       </c>
@@ -10161,7 +10191,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>165</v>
       </c>
@@ -10172,7 +10202,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>168</v>
       </c>
@@ -10183,7 +10213,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>171</v>
       </c>
@@ -10194,7 +10224,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>174</v>
       </c>
@@ -10205,7 +10235,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>177</v>
       </c>
@@ -10216,7 +10246,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>180</v>
       </c>
@@ -10227,7 +10257,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>183</v>
       </c>
@@ -10238,7 +10268,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" ht="120" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>186</v>
       </c>
@@ -10249,7 +10279,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>189</v>
       </c>
@@ -10260,7 +10290,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>192</v>
       </c>
@@ -10271,7 +10301,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>195</v>
       </c>
@@ -10282,7 +10312,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>198</v>
       </c>
@@ -10293,7 +10323,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>201</v>
       </c>
@@ -10304,7 +10334,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>204</v>
       </c>
@@ -10315,7 +10345,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>207</v>
       </c>
@@ -10326,7 +10356,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>210</v>
       </c>
@@ -10337,7 +10367,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>213</v>
       </c>
@@ -10348,7 +10378,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" ht="105" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>216</v>
       </c>
@@ -10359,7 +10389,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>219</v>
       </c>
@@ -10370,7 +10400,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>222</v>
       </c>
@@ -10381,7 +10411,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>225</v>
       </c>
@@ -10392,7 +10422,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>228</v>
       </c>
@@ -10403,7 +10433,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>231</v>
       </c>
@@ -10414,7 +10444,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>234</v>
       </c>
@@ -10425,7 +10455,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>237</v>
       </c>
@@ -10436,7 +10466,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>240</v>
       </c>
@@ -10447,7 +10477,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>243</v>
       </c>
@@ -10458,7 +10488,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>246</v>
       </c>
@@ -10469,7 +10499,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>249</v>
       </c>
@@ -10480,7 +10510,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>252</v>
       </c>
@@ -10491,7 +10521,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>255</v>
       </c>
@@ -10502,7 +10532,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" ht="105" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>258</v>
       </c>
@@ -10513,7 +10543,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" ht="90" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>261</v>
       </c>
@@ -10524,7 +10554,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>264</v>
       </c>
@@ -10535,7 +10565,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" ht="105" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>267</v>
       </c>
@@ -10546,7 +10576,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>270</v>
       </c>
@@ -10557,7 +10587,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>273</v>
       </c>
@@ -10568,7 +10598,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>276</v>
       </c>
@@ -10579,7 +10609,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>279</v>
       </c>
@@ -10590,7 +10620,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>282</v>
       </c>
@@ -10601,7 +10631,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>285</v>
       </c>
@@ -10612,7 +10642,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>288</v>
       </c>
@@ -10623,7 +10653,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>291</v>
       </c>
@@ -10634,7 +10664,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>294</v>
       </c>
@@ -10645,7 +10675,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>297</v>
       </c>
@@ -10656,7 +10686,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>300</v>
       </c>
@@ -10667,7 +10697,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>303</v>
       </c>
@@ -10678,7 +10708,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>306</v>
       </c>
@@ -10689,7 +10719,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" ht="90" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>309</v>
       </c>
@@ -10700,7 +10730,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>312</v>
       </c>
@@ -10711,7 +10741,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>315</v>
       </c>
@@ -10722,7 +10752,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>318</v>
       </c>
@@ -10733,7 +10763,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>321</v>
       </c>
@@ -10744,7 +10774,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>324</v>
       </c>
@@ -10755,7 +10785,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>327</v>
       </c>
@@ -10766,7 +10796,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" ht="105" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>330</v>
       </c>
@@ -10777,7 +10807,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>333</v>
       </c>
@@ -10788,7 +10818,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" ht="90" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>336</v>
       </c>
@@ -10799,7 +10829,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>339</v>
       </c>
@@ -10810,7 +10840,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>342</v>
       </c>
@@ -10821,7 +10851,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>345</v>
       </c>
@@ -10832,7 +10862,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" ht="105" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>348</v>
       </c>
@@ -10843,7 +10873,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>351</v>
       </c>
@@ -10854,7 +10884,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" ht="90" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>354</v>
       </c>
@@ -10865,7 +10895,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" ht="105" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>357</v>
       </c>
@@ -10876,7 +10906,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>360</v>
       </c>
@@ -10887,7 +10917,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" ht="165" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>363</v>
       </c>
@@ -10898,7 +10928,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>366</v>
       </c>
@@ -10909,7 +10939,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" ht="135" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>369</v>
       </c>
@@ -10920,7 +10950,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" ht="105" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>372</v>
       </c>
@@ -10931,7 +10961,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" ht="90" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>375</v>
       </c>
@@ -10942,7 +10972,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" ht="165" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>378</v>
       </c>
@@ -10953,7 +10983,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>381</v>
       </c>
@@ -10964,7 +10994,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>384</v>
       </c>
@@ -10975,7 +11005,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>387</v>
       </c>
@@ -10986,7 +11016,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>390</v>
       </c>
@@ -10997,7 +11027,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>393</v>
       </c>
@@ -11008,7 +11038,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>396</v>
       </c>
@@ -11019,7 +11049,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" ht="135" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>399</v>
       </c>
@@ -11030,7 +11060,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" ht="105" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>402</v>
       </c>
@@ -11041,7 +11071,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" ht="105" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>405</v>
       </c>
@@ -11052,7 +11082,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>408</v>
       </c>
@@ -11063,7 +11093,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>411</v>
       </c>
@@ -11074,7 +11104,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>414</v>
       </c>
@@ -11085,7 +11115,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>417</v>
       </c>
@@ -11096,7 +11126,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" ht="105" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>420</v>
       </c>
@@ -11107,7 +11137,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>423</v>
       </c>
@@ -11118,7 +11148,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>426</v>
       </c>
@@ -11129,7 +11159,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" ht="105" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>429</v>
       </c>
@@ -11140,7 +11170,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>432</v>
       </c>
@@ -11151,7 +11181,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>435</v>
       </c>
@@ -11162,7 +11192,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>438</v>
       </c>
@@ -11173,7 +11203,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" ht="105" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>441</v>
       </c>
@@ -11184,7 +11214,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>444</v>
       </c>
@@ -11195,7 +11225,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>447</v>
       </c>
@@ -11206,7 +11236,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:3" ht="105" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>450</v>
       </c>
@@ -11217,7 +11247,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>453</v>
       </c>
@@ -11228,7 +11258,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>456</v>
       </c>
@@ -11239,7 +11269,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>459</v>
       </c>
@@ -11250,7 +11280,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>462</v>
       </c>
@@ -11261,7 +11291,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:3" ht="90" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>465</v>
       </c>
@@ -11272,7 +11302,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>468</v>
       </c>
@@ -11283,7 +11313,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>471</v>
       </c>
@@ -11294,7 +11324,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>474</v>
       </c>
@@ -11305,7 +11335,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>477</v>
       </c>
@@ -11316,7 +11346,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>480</v>
       </c>
@@ -11327,7 +11357,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>483</v>
       </c>
@@ -11338,7 +11368,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:3" ht="90" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>486</v>
       </c>
@@ -11349,7 +11379,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>489</v>
       </c>
@@ -11360,7 +11390,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>492</v>
       </c>
@@ -11371,7 +11401,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>495</v>
       </c>
@@ -11382,7 +11412,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>498</v>
       </c>
@@ -11393,7 +11423,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>501</v>
       </c>
@@ -11404,7 +11434,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>504</v>
       </c>
@@ -11415,7 +11445,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>507</v>
       </c>
@@ -11426,7 +11456,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>510</v>
       </c>
@@ -11437,7 +11467,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>513</v>
       </c>
@@ -11448,7 +11478,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:3" ht="120" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>516</v>
       </c>
@@ -11459,7 +11489,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>519</v>
       </c>
@@ -11470,7 +11500,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>522</v>
       </c>
@@ -11481,7 +11511,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>525</v>
       </c>
@@ -11492,7 +11522,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:3" ht="105" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>528</v>
       </c>
@@ -11503,7 +11533,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>531</v>
       </c>
@@ -11514,7 +11544,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>534</v>
       </c>
@@ -11525,7 +11555,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>537</v>
       </c>
@@ -11536,7 +11566,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:3" ht="90" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>540</v>
       </c>
@@ -11547,7 +11577,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>543</v>
       </c>
@@ -11558,7 +11588,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>546</v>
       </c>
@@ -11569,7 +11599,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>549</v>
       </c>
@@ -11580,7 +11610,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>552</v>
       </c>
@@ -11591,7 +11621,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>555</v>
       </c>
@@ -11602,7 +11632,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>558</v>
       </c>
@@ -11613,7 +11643,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:3" ht="90" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>561</v>
       </c>
@@ -11624,7 +11654,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>564</v>
       </c>
@@ -11635,7 +11665,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>567</v>
       </c>
@@ -11646,7 +11676,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>570</v>
       </c>
@@ -11657,7 +11687,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>573</v>
       </c>
@@ -11668,7 +11698,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>576</v>
       </c>
@@ -11679,7 +11709,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>579</v>
       </c>
@@ -11690,7 +11720,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>582</v>
       </c>
@@ -11701,7 +11731,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:3" ht="105" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>585</v>
       </c>
@@ -11712,7 +11742,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>588</v>
       </c>
@@ -11723,7 +11753,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:3" ht="90" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>591</v>
       </c>
@@ -11734,7 +11764,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>594</v>
       </c>
@@ -11745,7 +11775,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>597</v>
       </c>
@@ -11756,7 +11786,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>600</v>
       </c>
@@ -11767,7 +11797,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>603</v>
       </c>
@@ -11778,7 +11808,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:3" ht="105" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>606</v>
       </c>
@@ -11789,7 +11819,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>609</v>
       </c>
@@ -11800,7 +11830,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>612</v>
       </c>
@@ -11811,7 +11841,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>615</v>
       </c>
@@ -11822,7 +11852,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
+    <row r="207" spans="1:3" ht="120" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>618</v>
       </c>
@@ -11833,7 +11863,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>621</v>
       </c>
@@ -11844,7 +11874,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" spans="1:3" ht="105" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>624</v>
       </c>
@@ -11855,7 +11885,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" spans="1:3" ht="105" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>627</v>
       </c>
@@ -11866,7 +11896,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
+    <row r="211" spans="1:3" ht="105" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>630</v>
       </c>
@@ -11877,7 +11907,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
+    <row r="212" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>633</v>
       </c>
@@ -11888,7 +11918,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>636</v>
       </c>
@@ -11899,7 +11929,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>639</v>
       </c>
@@ -11910,7 +11940,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="215" spans="1:3">
+    <row r="215" spans="1:3" ht="90" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>642</v>
       </c>
@@ -11921,7 +11951,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="216" spans="1:3">
+    <row r="216" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>645</v>
       </c>
@@ -11932,7 +11962,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
+    <row r="217" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>648</v>
       </c>
@@ -11943,7 +11973,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>651</v>
       </c>
@@ -11954,7 +11984,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" spans="1:3" ht="120" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>654</v>
       </c>
@@ -11965,7 +11995,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>657</v>
       </c>
@@ -11976,7 +12006,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
+    <row r="221" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>660</v>
       </c>
@@ -11987,7 +12017,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="222" spans="1:3">
+    <row r="222" spans="1:3" ht="120" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>663</v>
       </c>
@@ -11998,7 +12028,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="223" spans="1:3">
+    <row r="223" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>666</v>
       </c>
@@ -12009,7 +12039,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
+    <row r="224" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>669</v>
       </c>
@@ -12020,7 +12050,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="225" spans="1:3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
         <v>672</v>
       </c>
@@ -12031,7 +12061,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="226" spans="1:3">
+    <row r="226" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>675</v>
       </c>
@@ -12042,7 +12072,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="227" spans="1:3">
+    <row r="227" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
         <v>678</v>
       </c>
@@ -12053,7 +12083,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="228" spans="1:3">
+    <row r="228" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>681</v>
       </c>
@@ -12064,7 +12094,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="229" spans="1:3">
+    <row r="229" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
         <v>684</v>
       </c>
@@ -12075,7 +12105,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="230" spans="1:3">
+    <row r="230" spans="1:3" ht="105" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
         <v>687</v>
       </c>
@@ -12086,7 +12116,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="231" spans="1:3">
+    <row r="231" spans="1:3" ht="90" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
         <v>690</v>
       </c>
@@ -12097,7 +12127,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="232" spans="1:3">
+    <row r="232" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
         <v>693</v>
       </c>
@@ -12108,7 +12138,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="233" spans="1:3">
+    <row r="233" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>696</v>
       </c>
@@ -12119,7 +12149,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="234" spans="1:3">
+    <row r="234" spans="1:3" ht="90" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
         <v>699</v>
       </c>
@@ -12130,7 +12160,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="235" spans="1:3">
+    <row r="235" spans="1:3" ht="120" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>702</v>
       </c>
@@ -12141,7 +12171,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="236" spans="1:3">
+    <row r="236" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
         <v>705</v>
       </c>
@@ -12152,7 +12182,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="237" spans="1:3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>708</v>
       </c>
@@ -12163,7 +12193,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="238" spans="1:3">
+    <row r="238" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>711</v>
       </c>
@@ -12174,7 +12204,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="239" spans="1:3">
+    <row r="239" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
         <v>714</v>
       </c>
@@ -12185,7 +12215,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="240" spans="1:3">
+    <row r="240" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
         <v>717</v>
       </c>
@@ -12196,7 +12226,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="241" spans="1:3">
+    <row r="241" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
         <v>720</v>
       </c>
@@ -12207,7 +12237,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="242" spans="1:3">
+    <row r="242" spans="1:3" ht="90" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
         <v>723</v>
       </c>
@@ -12218,7 +12248,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="243" spans="1:3">
+    <row r="243" spans="1:3" ht="135" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
         <v>726</v>
       </c>
@@ -12229,7 +12259,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="244" spans="1:3">
+    <row r="244" spans="1:3" ht="105" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>729</v>
       </c>
@@ -12240,7 +12270,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="245" spans="1:3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
         <v>732</v>
       </c>
@@ -12251,7 +12281,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="246" spans="1:3">
+    <row r="246" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
         <v>735</v>
       </c>
@@ -12262,7 +12292,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="247" spans="1:3">
+    <row r="247" spans="1:3" ht="90" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>738</v>
       </c>
@@ -12273,7 +12303,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="248" spans="1:3">
+    <row r="248" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
         <v>741</v>
       </c>
@@ -12284,7 +12314,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="249" spans="1:3">
+    <row r="249" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
         <v>744</v>
       </c>
@@ -12295,7 +12325,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="250" spans="1:3">
+    <row r="250" spans="1:3" ht="90" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
         <v>747</v>
       </c>
@@ -12306,7 +12336,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="251" spans="1:3">
+    <row r="251" spans="1:3" ht="120" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
         <v>750</v>
       </c>
@@ -12317,7 +12347,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="252" spans="1:3">
+    <row r="252" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
         <v>753</v>
       </c>
@@ -12328,7 +12358,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="253" spans="1:3">
+    <row r="253" spans="1:3" ht="90" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
         <v>756</v>
       </c>
@@ -12339,7 +12369,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="254" spans="1:3">
+    <row r="254" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
         <v>759</v>
       </c>
@@ -12350,7 +12380,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="255" spans="1:3">
+    <row r="255" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
         <v>762</v>
       </c>
@@ -12361,7 +12391,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="256" spans="1:3">
+    <row r="256" spans="1:3" ht="105" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
         <v>765</v>
       </c>
@@ -12372,7 +12402,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="257" spans="1:3">
+    <row r="257" spans="1:3" ht="105" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
         <v>768</v>
       </c>
@@ -12383,7 +12413,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="258" spans="1:3">
+    <row r="258" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
         <v>771</v>
       </c>
@@ -12394,7 +12424,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="259" spans="1:3">
+    <row r="259" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
         <v>774</v>
       </c>
@@ -12405,7 +12435,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="260" spans="1:3">
+    <row r="260" spans="1:3" ht="90" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
         <v>777</v>
       </c>
@@ -12416,7 +12446,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="261" spans="1:3">
+    <row r="261" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
         <v>780</v>
       </c>
@@ -12427,7 +12457,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="262" spans="1:3">
+    <row r="262" spans="1:3" ht="90" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
         <v>783</v>
       </c>
@@ -12438,7 +12468,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="263" spans="1:3">
+    <row r="263" spans="1:3" ht="105" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
         <v>786</v>
       </c>
@@ -12449,7 +12479,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="264" spans="1:3">
+    <row r="264" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
         <v>789</v>
       </c>
@@ -12460,7 +12490,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="265" spans="1:3">
+    <row r="265" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
         <v>792</v>
       </c>
@@ -12471,7 +12501,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="266" spans="1:3">
+    <row r="266" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
         <v>795</v>
       </c>
@@ -12482,7 +12512,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="267" spans="1:3">
+    <row r="267" spans="1:3" ht="105" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
         <v>798</v>
       </c>
@@ -12493,7 +12523,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="268" spans="1:3">
+    <row r="268" spans="1:3" ht="90" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
         <v>801</v>
       </c>
@@ -12504,7 +12534,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="269" spans="1:3">
+    <row r="269" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
         <v>804</v>
       </c>
@@ -12515,7 +12545,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="270" spans="1:3">
+    <row r="270" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
         <v>807</v>
       </c>
@@ -12526,7 +12556,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="271" spans="1:3">
+    <row r="271" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
         <v>810</v>
       </c>
@@ -12537,7 +12567,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="272" spans="1:3">
+    <row r="272" spans="1:3" ht="90" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
         <v>813</v>
       </c>
@@ -12548,7 +12578,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="273" spans="1:3">
+    <row r="273" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
         <v>816</v>
       </c>
@@ -12559,7 +12589,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="274" spans="1:3">
+    <row r="274" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
         <v>819</v>
       </c>
@@ -12570,7 +12600,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="275" spans="1:3">
+    <row r="275" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
         <v>822</v>
       </c>
@@ -12581,7 +12611,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="276" spans="1:3">
+    <row r="276" spans="1:3" ht="90" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
         <v>825</v>
       </c>
@@ -12592,7 +12622,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="277" spans="1:3">
+    <row r="277" spans="1:3" ht="90" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
         <v>828</v>
       </c>
@@ -12603,7 +12633,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="278" spans="1:3">
+    <row r="278" spans="1:3" ht="105" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
         <v>831</v>
       </c>
@@ -12614,7 +12644,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="279" spans="1:3">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
         <v>834</v>
       </c>
@@ -12625,7 +12655,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="280" spans="1:3">
+    <row r="280" spans="1:3" ht="105" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
         <v>837</v>
       </c>
@@ -12636,7 +12666,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="281" spans="1:3">
+    <row r="281" spans="1:3" ht="105" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
         <v>840</v>
       </c>
@@ -12647,7 +12677,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="282" spans="1:3">
+    <row r="282" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
         <v>843</v>
       </c>
@@ -12658,7 +12688,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="283" spans="1:3">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
         <v>846</v>
       </c>
@@ -12669,7 +12699,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="284" spans="1:3">
+    <row r="284" spans="1:3" ht="135" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
         <v>849</v>
       </c>
@@ -12680,7 +12710,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="285" spans="1:3">
+    <row r="285" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
         <v>852</v>
       </c>
@@ -12691,7 +12721,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="286" spans="1:3">
+    <row r="286" spans="1:3" ht="120" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
         <v>855</v>
       </c>
@@ -12702,7 +12732,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="287" spans="1:3">
+    <row r="287" spans="1:3" ht="135" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
         <v>858</v>
       </c>
@@ -12713,7 +12743,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="288" spans="1:3">
+    <row r="288" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
         <v>861</v>
       </c>
@@ -12724,7 +12754,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="289" spans="1:3">
+    <row r="289" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
         <v>864</v>
       </c>
@@ -12735,7 +12765,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="290" spans="1:3">
+    <row r="290" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
         <v>867</v>
       </c>
@@ -12746,7 +12776,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="291" spans="1:3">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
         <v>870</v>
       </c>
@@ -12757,7 +12787,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="292" spans="1:3">
+    <row r="292" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
         <v>873</v>
       </c>
@@ -12768,7 +12798,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="293" spans="1:3">
+    <row r="293" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
         <v>876</v>
       </c>
@@ -12779,7 +12809,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="294" spans="1:3">
+    <row r="294" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
         <v>879</v>
       </c>
@@ -12790,7 +12820,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="295" spans="1:3">
+    <row r="295" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="s">
         <v>882</v>
       </c>
@@ -12801,7 +12831,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="296" spans="1:3">
+    <row r="296" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
         <v>885</v>
       </c>
@@ -12812,7 +12842,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="297" spans="1:3">
+    <row r="297" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="s">
         <v>888</v>
       </c>
@@ -12823,7 +12853,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="298" spans="1:3">
+    <row r="298" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
         <v>891</v>
       </c>
@@ -12834,7 +12864,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="299" spans="1:3">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
         <v>894</v>
       </c>
@@ -12845,7 +12875,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="300" spans="1:3">
+    <row r="300" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
         <v>897</v>
       </c>
@@ -12856,7 +12886,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="301" spans="1:3">
+    <row r="301" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
         <v>900</v>
       </c>
@@ -12867,7 +12897,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="302" spans="1:3">
+    <row r="302" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="s">
         <v>903</v>
       </c>
@@ -12878,7 +12908,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="303" spans="1:3">
+    <row r="303" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
         <v>906</v>
       </c>
@@ -12889,7 +12919,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="304" spans="1:3">
+    <row r="304" spans="1:3" ht="90" x14ac:dyDescent="0.2">
       <c r="A304" s="1" t="s">
         <v>909</v>
       </c>
@@ -12900,7 +12930,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="305" spans="1:3">
+    <row r="305" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A305" s="1" t="s">
         <v>912</v>
       </c>
@@ -12911,7 +12941,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="306" spans="1:3">
+    <row r="306" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
         <v>915</v>
       </c>
@@ -12922,7 +12952,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="307" spans="1:3">
+    <row r="307" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="s">
         <v>918</v>
       </c>
@@ -12933,7 +12963,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="308" spans="1:3">
+    <row r="308" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
         <v>921</v>
       </c>
@@ -12944,7 +12974,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="309" spans="1:3">
+    <row r="309" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A309" s="1" t="s">
         <v>924</v>
       </c>
@@ -12955,7 +12985,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="310" spans="1:3">
+    <row r="310" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
         <v>927</v>
       </c>
@@ -12966,7 +12996,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="311" spans="1:3">
+    <row r="311" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
         <v>930</v>
       </c>
@@ -12977,7 +13007,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="312" spans="1:3">
+    <row r="312" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
         <v>933</v>
       </c>
@@ -12988,7 +13018,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="313" spans="1:3">
+    <row r="313" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A313" s="1" t="s">
         <v>936</v>
       </c>
@@ -12999,7 +13029,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="314" spans="1:3">
+    <row r="314" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
         <v>939</v>
       </c>
@@ -13010,7 +13040,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="315" spans="1:3">
+    <row r="315" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A315" s="1" t="s">
         <v>942</v>
       </c>
@@ -13021,7 +13051,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="316" spans="1:3">
+    <row r="316" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
         <v>945</v>
       </c>
@@ -13032,7 +13062,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="317" spans="1:3">
+    <row r="317" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="s">
         <v>948</v>
       </c>
@@ -13043,7 +13073,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="318" spans="1:3">
+    <row r="318" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A318" s="1" t="s">
         <v>951</v>
       </c>
@@ -13054,7 +13084,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="319" spans="1:3">
+    <row r="319" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A319" s="1" t="s">
         <v>954</v>
       </c>
@@ -13065,7 +13095,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="320" spans="1:3">
+    <row r="320" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A320" s="1" t="s">
         <v>957</v>
       </c>
@@ -13076,7 +13106,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="321" spans="1:3">
+    <row r="321" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A321" s="1" t="s">
         <v>960</v>
       </c>
@@ -13087,7 +13117,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="322" spans="1:3">
+    <row r="322" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
         <v>963</v>
       </c>
@@ -13098,7 +13128,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="323" spans="1:3">
+    <row r="323" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A323" s="1" t="s">
         <v>966</v>
       </c>
@@ -13109,7 +13139,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="324" spans="1:3">
+    <row r="324" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
         <v>969</v>
       </c>
@@ -13120,7 +13150,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="325" spans="1:3">
+    <row r="325" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A325" s="1" t="s">
         <v>972</v>
       </c>
@@ -13131,7 +13161,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="326" spans="1:3">
+    <row r="326" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
         <v>975</v>
       </c>
@@ -13142,7 +13172,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="327" spans="1:3">
+    <row r="327" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A327" s="1" t="s">
         <v>978</v>
       </c>
@@ -13153,7 +13183,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="328" spans="1:3">
+    <row r="328" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A328" s="1" t="s">
         <v>981</v>
       </c>
@@ -13164,7 +13194,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="329" spans="1:3">
+    <row r="329" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A329" s="1" t="s">
         <v>984</v>
       </c>
@@ -13175,7 +13205,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="330" spans="1:3">
+    <row r="330" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A330" s="1" t="s">
         <v>987</v>
       </c>
@@ -13186,7 +13216,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="331" spans="1:3">
+    <row r="331" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A331" s="1" t="s">
         <v>990</v>
       </c>
@@ -13197,7 +13227,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="332" spans="1:3">
+    <row r="332" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
         <v>993</v>
       </c>
@@ -13208,7 +13238,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="333" spans="1:3">
+    <row r="333" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A333" s="1" t="s">
         <v>996</v>
       </c>
@@ -13219,7 +13249,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="334" spans="1:3">
+    <row r="334" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
         <v>999</v>
       </c>
@@ -13230,7 +13260,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="335" spans="1:3">
+    <row r="335" spans="1:3" ht="90" x14ac:dyDescent="0.2">
       <c r="A335" s="1" t="s">
         <v>1002</v>
       </c>
@@ -13241,7 +13271,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="336" spans="1:3">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A336" s="1" t="s">
         <v>1005</v>
       </c>
@@ -13252,7 +13282,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="337" spans="1:3">
+    <row r="337" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A337" s="1" t="s">
         <v>1008</v>
       </c>
@@ -13263,7 +13293,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="338" spans="1:3">
+    <row r="338" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="s">
         <v>1011</v>
       </c>
@@ -13274,7 +13304,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="339" spans="1:3">
+    <row r="339" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A339" s="1" t="s">
         <v>1014</v>
       </c>
@@ -13285,7 +13315,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="340" spans="1:3">
+    <row r="340" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="s">
         <v>1017</v>
       </c>
@@ -13296,7 +13326,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="341" spans="1:3">
+    <row r="341" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A341" s="1" t="s">
         <v>1020</v>
       </c>
@@ -13307,7 +13337,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="342" spans="1:3">
+    <row r="342" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A342" s="1" t="s">
         <v>1023</v>
       </c>
@@ -13318,7 +13348,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="343" spans="1:3">
+    <row r="343" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A343" s="1" t="s">
         <v>1026</v>
       </c>
@@ -13329,7 +13359,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="344" spans="1:3">
+    <row r="344" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A344" s="1" t="s">
         <v>1029</v>
       </c>
@@ -13340,7 +13370,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="345" spans="1:3">
+    <row r="345" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A345" s="1" t="s">
         <v>1032</v>
       </c>
@@ -13351,7 +13381,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="346" spans="1:3">
+    <row r="346" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A346" s="1" t="s">
         <v>1035</v>
       </c>
@@ -13362,7 +13392,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="347" spans="1:3">
+    <row r="347" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A347" s="1" t="s">
         <v>1038</v>
       </c>
@@ -13373,7 +13403,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="348" spans="1:3">
+    <row r="348" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A348" s="1" t="s">
         <v>1041</v>
       </c>
@@ -13384,7 +13414,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="349" spans="1:3">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A349" s="1" t="s">
         <v>1044</v>
       </c>
@@ -13395,7 +13425,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="350" spans="1:3">
+    <row r="350" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A350" s="1" t="s">
         <v>1047</v>
       </c>
@@ -13406,7 +13436,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="351" spans="1:3">
+    <row r="351" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A351" s="1" t="s">
         <v>1050</v>
       </c>
@@ -13417,7 +13447,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="352" spans="1:3">
+    <row r="352" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A352" s="1" t="s">
         <v>1053</v>
       </c>
@@ -13428,7 +13458,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="353" spans="1:3">
+    <row r="353" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A353" s="1" t="s">
         <v>1056</v>
       </c>
@@ -13439,7 +13469,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="354" spans="1:3">
+    <row r="354" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A354" s="1" t="s">
         <v>1059</v>
       </c>
@@ -13450,7 +13480,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="355" spans="1:3">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A355" s="1" t="s">
         <v>1062</v>
       </c>
@@ -13461,7 +13491,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="356" spans="1:3">
+    <row r="356" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A356" s="1" t="s">
         <v>1065</v>
       </c>
@@ -13472,7 +13502,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="357" spans="1:3">
+    <row r="357" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A357" s="1" t="s">
         <v>1068</v>
       </c>
@@ -13483,7 +13513,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="358" spans="1:3">
+    <row r="358" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A358" s="1" t="s">
         <v>1071</v>
       </c>
@@ -13494,7 +13524,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="359" spans="1:3">
+    <row r="359" spans="1:3" ht="135" x14ac:dyDescent="0.2">
       <c r="A359" s="1" t="s">
         <v>1074</v>
       </c>
@@ -13505,7 +13535,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="360" spans="1:3">
+    <row r="360" spans="1:3" ht="120" x14ac:dyDescent="0.2">
       <c r="A360" s="1" t="s">
         <v>1077</v>
       </c>
@@ -13516,7 +13546,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="361" spans="1:3">
+    <row r="361" spans="1:3" ht="120" x14ac:dyDescent="0.2">
       <c r="A361" s="1" t="s">
         <v>1080</v>
       </c>
@@ -13527,7 +13557,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="362" spans="1:3">
+    <row r="362" spans="1:3" ht="90" x14ac:dyDescent="0.2">
       <c r="A362" s="1" t="s">
         <v>1083</v>
       </c>
@@ -13538,7 +13568,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="363" spans="1:3">
+    <row r="363" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A363" s="1" t="s">
         <v>1086</v>
       </c>
@@ -13549,7 +13579,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="364" spans="1:3">
+    <row r="364" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A364" s="1" t="s">
         <v>1089</v>
       </c>
@@ -13560,7 +13590,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="365" spans="1:3">
+    <row r="365" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A365" s="1" t="s">
         <v>1092</v>
       </c>
@@ -13571,7 +13601,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="366" spans="1:3">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A366" s="1" t="s">
         <v>1095</v>
       </c>
@@ -13582,7 +13612,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="367" spans="1:3">
+    <row r="367" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A367" s="1" t="s">
         <v>1098</v>
       </c>
@@ -13593,7 +13623,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="368" spans="1:3">
+    <row r="368" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A368" s="1" t="s">
         <v>1101</v>
       </c>
@@ -13604,7 +13634,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="369" spans="1:3">
+    <row r="369" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A369" s="1" t="s">
         <v>1104</v>
       </c>
@@ -13615,7 +13645,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="370" spans="1:3">
+    <row r="370" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A370" s="1" t="s">
         <v>1107</v>
       </c>
@@ -13626,7 +13656,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="371" spans="1:3">
+    <row r="371" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A371" s="1" t="s">
         <v>1110</v>
       </c>
@@ -13637,7 +13667,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="372" spans="1:3">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A372" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13648,7 +13678,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="373" spans="1:3">
+    <row r="373" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A373" s="1" t="s">
         <v>1116</v>
       </c>
@@ -13659,7 +13689,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="374" spans="1:3">
+    <row r="374" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A374" s="1" t="s">
         <v>1119</v>
       </c>
@@ -13670,7 +13700,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="375" spans="1:3">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A375" s="1" t="s">
         <v>1122</v>
       </c>
@@ -13681,7 +13711,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="376" spans="1:3">
+    <row r="376" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A376" s="1" t="s">
         <v>1125</v>
       </c>
@@ -13692,7 +13722,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="377" spans="1:3">
+    <row r="377" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A377" s="1" t="s">
         <v>1128</v>
       </c>
@@ -13703,7 +13733,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="378" spans="1:3">
+    <row r="378" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A378" s="1" t="s">
         <v>1131</v>
       </c>
@@ -13714,7 +13744,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="379" spans="1:3">
+    <row r="379" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A379" s="1" t="s">
         <v>1134</v>
       </c>
@@ -13725,7 +13755,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="380" spans="1:3">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A380" s="1" t="s">
         <v>1137</v>
       </c>
@@ -13736,7 +13766,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="381" spans="1:3">
+    <row r="381" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A381" s="1" t="s">
         <v>1140</v>
       </c>
@@ -13747,7 +13777,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="382" spans="1:3">
+    <row r="382" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A382" s="1" t="s">
         <v>1143</v>
       </c>
@@ -13758,7 +13788,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="383" spans="1:3">
+    <row r="383" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A383" s="1" t="s">
         <v>1146</v>
       </c>
@@ -13769,7 +13799,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="384" spans="1:3">
+    <row r="384" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A384" s="1" t="s">
         <v>1149</v>
       </c>
@@ -13780,7 +13810,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="385" spans="1:3">
+    <row r="385" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A385" s="1" t="s">
         <v>1152</v>
       </c>
@@ -13791,7 +13821,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="386" spans="1:3">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A386" s="1" t="s">
         <v>1155</v>
       </c>
@@ -13802,7 +13832,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="387" spans="1:3">
+    <row r="387" spans="1:3" ht="90" x14ac:dyDescent="0.2">
       <c r="A387" s="1" t="s">
         <v>1158</v>
       </c>
@@ -13813,7 +13843,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="388" spans="1:3">
+    <row r="388" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A388" s="1" t="s">
         <v>1161</v>
       </c>
@@ -13824,7 +13854,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="389" spans="1:3">
+    <row r="389" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A389" s="1" t="s">
         <v>1164</v>
       </c>
@@ -13835,7 +13865,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="390" spans="1:3">
+    <row r="390" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A390" s="1" t="s">
         <v>1167</v>
       </c>
@@ -13846,7 +13876,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="391" spans="1:3">
+    <row r="391" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A391" s="1" t="s">
         <v>1170</v>
       </c>
@@ -13857,7 +13887,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="392" spans="1:3">
+    <row r="392" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A392" s="1" t="s">
         <v>1173</v>
       </c>
@@ -13868,7 +13898,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="393" spans="1:3">
+    <row r="393" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A393" s="1" t="s">
         <v>1176</v>
       </c>
@@ -13879,7 +13909,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="394" spans="1:3">
+    <row r="394" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A394" s="1" t="s">
         <v>1179</v>
       </c>
@@ -13890,7 +13920,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="395" spans="1:3">
+    <row r="395" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A395" s="1" t="s">
         <v>1182</v>
       </c>
@@ -13901,7 +13931,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="396" spans="1:3">
+    <row r="396" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A396" s="1" t="s">
         <v>1185</v>
       </c>
@@ -13912,7 +13942,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="397" spans="1:3">
+    <row r="397" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A397" s="1" t="s">
         <v>1188</v>
       </c>
@@ -13923,7 +13953,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="398" spans="1:3">
+    <row r="398" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A398" s="1" t="s">
         <v>1191</v>
       </c>
@@ -13934,7 +13964,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="399" spans="1:3">
+    <row r="399" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A399" s="1" t="s">
         <v>1194</v>
       </c>
@@ -13945,7 +13975,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="400" spans="1:3">
+    <row r="400" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A400" s="1" t="s">
         <v>1197</v>
       </c>
@@ -13956,7 +13986,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="401" spans="1:3">
+    <row r="401" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A401" s="1" t="s">
         <v>1200</v>
       </c>
@@ -13967,7 +13997,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="402" spans="1:3">
+    <row r="402" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A402" s="1" t="s">
         <v>1203</v>
       </c>
@@ -13978,7 +14008,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="403" spans="1:3">
+    <row r="403" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A403" s="1" t="s">
         <v>1206</v>
       </c>
@@ -13989,7 +14019,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="404" spans="1:3">
+    <row r="404" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A404" s="1" t="s">
         <v>1209</v>
       </c>
@@ -14000,7 +14030,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="405" spans="1:3">
+    <row r="405" spans="1:3" ht="90" x14ac:dyDescent="0.2">
       <c r="A405" s="1" t="s">
         <v>1212</v>
       </c>
@@ -14011,7 +14041,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="406" spans="1:3">
+    <row r="406" spans="1:3" ht="90" x14ac:dyDescent="0.2">
       <c r="A406" s="1" t="s">
         <v>1215</v>
       </c>
@@ -14022,7 +14052,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="407" spans="1:3">
+    <row r="407" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A407" s="1" t="s">
         <v>1218</v>
       </c>
@@ -14033,7 +14063,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="408" spans="1:3">
+    <row r="408" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A408" s="1" t="s">
         <v>1221</v>
       </c>
@@ -14044,7 +14074,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="409" spans="1:3">
+    <row r="409" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A409" s="1" t="s">
         <v>1224</v>
       </c>
@@ -14055,7 +14085,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="410" spans="1:3">
+    <row r="410" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A410" s="1" t="s">
         <v>1227</v>
       </c>
@@ -14066,7 +14096,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="411" spans="1:3">
+    <row r="411" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A411" s="1" t="s">
         <v>1230</v>
       </c>
@@ -14077,7 +14107,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="412" spans="1:3">
+    <row r="412" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A412" s="1" t="s">
         <v>1233</v>
       </c>
@@ -14088,7 +14118,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="413" spans="1:3">
+    <row r="413" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A413" s="1" t="s">
         <v>1236</v>
       </c>
@@ -14099,7 +14129,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="414" spans="1:3">
+    <row r="414" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A414" s="1" t="s">
         <v>1239</v>
       </c>
@@ -14110,7 +14140,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="415" spans="1:3">
+    <row r="415" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A415" s="1" t="s">
         <v>1242</v>
       </c>
@@ -14121,7 +14151,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="416" spans="1:3">
+    <row r="416" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A416" s="1" t="s">
         <v>1245</v>
       </c>
@@ -14132,7 +14162,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="417" spans="1:3">
+    <row r="417" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A417" s="1" t="s">
         <v>1248</v>
       </c>
@@ -14143,7 +14173,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="418" spans="1:3">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A418" s="1" t="s">
         <v>1251</v>
       </c>
@@ -14154,7 +14184,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="419" spans="1:3">
+    <row r="419" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A419" s="1" t="s">
         <v>1254</v>
       </c>
@@ -14165,7 +14195,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="420" spans="1:3">
+    <row r="420" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A420" s="1" t="s">
         <v>1257</v>
       </c>
@@ -14176,7 +14206,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="421" spans="1:3">
+    <row r="421" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A421" s="1" t="s">
         <v>1260</v>
       </c>
@@ -14187,7 +14217,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="422" spans="1:3">
+    <row r="422" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A422" s="1" t="s">
         <v>1263</v>
       </c>
@@ -14198,7 +14228,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="423" spans="1:3">
+    <row r="423" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A423" s="1" t="s">
         <v>1266</v>
       </c>
@@ -14209,7 +14239,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="424" spans="1:3">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A424" s="1" t="s">
         <v>1269</v>
       </c>
@@ -14220,7 +14250,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="425" spans="1:3">
+    <row r="425" spans="1:3" ht="90" x14ac:dyDescent="0.2">
       <c r="A425" s="1" t="s">
         <v>1272</v>
       </c>
@@ -14231,7 +14261,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="426" spans="1:3">
+    <row r="426" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A426" s="1" t="s">
         <v>1275</v>
       </c>
@@ -14242,7 +14272,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="427" spans="1:3">
+    <row r="427" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A427" s="1" t="s">
         <v>1278</v>
       </c>
@@ -14253,7 +14283,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="428" spans="1:3">
+    <row r="428" spans="1:3" ht="105" x14ac:dyDescent="0.2">
       <c r="A428" s="1" t="s">
         <v>1281</v>
       </c>
@@ -14264,7 +14294,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="429" spans="1:3">
+    <row r="429" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A429" s="1" t="s">
         <v>1284</v>
       </c>
@@ -14275,7 +14305,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="430" spans="1:3">
+    <row r="430" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A430" s="1" t="s">
         <v>1287</v>
       </c>
@@ -14286,7 +14316,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="431" spans="1:3">
+    <row r="431" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A431" s="1" t="s">
         <v>1290</v>
       </c>
@@ -14297,7 +14327,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="432" spans="1:3">
+    <row r="432" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A432" s="1" t="s">
         <v>1293</v>
       </c>
@@ -14308,7 +14338,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="433" spans="1:3">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A433" s="1" t="s">
         <v>1296</v>
       </c>
@@ -14319,7 +14349,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="434" spans="1:3">
+    <row r="434" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A434" s="1" t="s">
         <v>1299</v>
       </c>
@@ -14330,7 +14360,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="435" spans="1:3">
+    <row r="435" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A435" s="1" t="s">
         <v>1302</v>
       </c>
@@ -14341,7 +14371,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="436" spans="1:3">
+    <row r="436" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A436" s="1" t="s">
         <v>1305</v>
       </c>
@@ -14352,7 +14382,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="437" spans="1:3">
+    <row r="437" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A437" s="1" t="s">
         <v>1308</v>
       </c>
@@ -14363,7 +14393,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="438" spans="1:3">
+    <row r="438" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A438" s="1" t="s">
         <v>1311</v>
       </c>
@@ -14374,7 +14404,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="439" spans="1:3">
+    <row r="439" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A439" s="1" t="s">
         <v>1314</v>
       </c>
@@ -14385,7 +14415,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="440" spans="1:3">
+    <row r="440" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A440" s="1" t="s">
         <v>1317</v>
       </c>
@@ -14396,7 +14426,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="441" spans="1:3">
+    <row r="441" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A441" s="1" t="s">
         <v>1320</v>
       </c>
@@ -14407,7 +14437,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="442" spans="1:3">
+    <row r="442" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A442" s="1" t="s">
         <v>1323</v>
       </c>
@@ -14418,7 +14448,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="443" spans="1:3">
+    <row r="443" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A443" s="1" t="s">
         <v>1326</v>
       </c>
@@ -14429,7 +14459,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="444" spans="1:3">
+    <row r="444" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A444" s="1" t="s">
         <v>1329</v>
       </c>
@@ -14440,7 +14470,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="445" spans="1:3">
+    <row r="445" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A445" s="1" t="s">
         <v>1332</v>
       </c>
@@ -14451,7 +14481,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="446" spans="1:3">
+    <row r="446" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A446" s="1" t="s">
         <v>1335</v>
       </c>
@@ -14462,7 +14492,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="447" spans="1:3">
+    <row r="447" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A447" s="1" t="s">
         <v>1338</v>
       </c>
@@ -14473,7 +14503,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="448" spans="1:3">
+    <row r="448" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A448" s="1" t="s">
         <v>1341</v>
       </c>
@@ -14484,7 +14514,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="449" spans="1:3">
+    <row r="449" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A449" s="1" t="s">
         <v>1344</v>
       </c>
@@ -14495,7 +14525,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="450" spans="1:3">
+    <row r="450" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A450" s="1" t="s">
         <v>1347</v>
       </c>
@@ -14506,7 +14536,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="451" spans="1:3">
+    <row r="451" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A451" s="1" t="s">
         <v>1350</v>
       </c>
@@ -14517,7 +14547,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="452" spans="1:3">
+    <row r="452" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A452" s="1" t="s">
         <v>1353</v>
       </c>
@@ -14528,7 +14558,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="453" spans="1:3">
+    <row r="453" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A453" s="1" t="s">
         <v>1356</v>
       </c>
@@ -14539,7 +14569,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="454" spans="1:3">
+    <row r="454" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A454" s="1" t="s">
         <v>1359</v>
       </c>
@@ -14550,7 +14580,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="455" spans="1:3">
+    <row r="455" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A455" s="1" t="s">
         <v>1362</v>
       </c>
@@ -14561,7 +14591,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="456" spans="1:3">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A456" s="1" t="s">
         <v>1365</v>
       </c>
@@ -14572,7 +14602,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="457" spans="1:3">
+    <row r="457" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A457" s="1" t="s">
         <v>1368</v>
       </c>
@@ -14583,7 +14613,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="458" spans="1:3">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A458" s="1" t="s">
         <v>1371</v>
       </c>
@@ -14594,7 +14624,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="459" spans="1:3">
+    <row r="459" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A459" s="1" t="s">
         <v>1374</v>
       </c>
@@ -14605,7 +14635,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="460" spans="1:3">
+    <row r="460" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A460" s="1" t="s">
         <v>1377</v>
       </c>
@@ -14616,7 +14646,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="461" spans="1:3">
+    <row r="461" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A461" s="1" t="s">
         <v>1380</v>
       </c>
@@ -14627,7 +14657,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="462" spans="1:3">
+    <row r="462" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A462" s="1" t="s">
         <v>1383</v>
       </c>
@@ -14638,7 +14668,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="463" spans="1:3">
+    <row r="463" spans="1:3" ht="90" x14ac:dyDescent="0.2">
       <c r="A463" s="1" t="s">
         <v>1386</v>
       </c>
@@ -14649,7 +14679,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="464" spans="1:3">
+    <row r="464" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A464" s="1" t="s">
         <v>1389</v>
       </c>
@@ -14660,7 +14690,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="465" spans="1:3">
+    <row r="465" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A465" s="1" t="s">
         <v>1392</v>
       </c>
@@ -14671,7 +14701,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="466" spans="1:3">
+    <row r="466" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A466" s="1" t="s">
         <v>1395</v>
       </c>
@@ -14682,7 +14712,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="467" spans="1:3">
+    <row r="467" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A467" s="1" t="s">
         <v>1398</v>
       </c>
@@ -14693,7 +14723,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="468" spans="1:3">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A468" s="1" t="s">
         <v>1401</v>
       </c>
@@ -14704,7 +14734,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="469" spans="1:3">
+    <row r="469" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A469" s="1" t="s">
         <v>1404</v>
       </c>
@@ -14715,7 +14745,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="470" spans="1:3">
+    <row r="470" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A470" s="1" t="s">
         <v>1407</v>
       </c>
@@ -14726,7 +14756,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="471" spans="1:3">
+    <row r="471" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A471" s="1" t="s">
         <v>1410</v>
       </c>
@@ -14737,7 +14767,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="472" spans="1:3">
+    <row r="472" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A472" s="1" t="s">
         <v>1413</v>
       </c>
@@ -14748,7 +14778,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="473" spans="1:3">
+    <row r="473" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A473" s="1" t="s">
         <v>1416</v>
       </c>
@@ -14759,7 +14789,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="474" spans="1:3">
+    <row r="474" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A474" s="1" t="s">
         <v>1419</v>
       </c>
@@ -14770,7 +14800,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="475" spans="1:3">
+    <row r="475" spans="1:3" ht="90" x14ac:dyDescent="0.2">
       <c r="A475" s="1" t="s">
         <v>1422</v>
       </c>
@@ -14781,7 +14811,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="476" spans="1:3">
+    <row r="476" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A476" s="1" t="s">
         <v>1425</v>
       </c>
@@ -14792,7 +14822,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="477" spans="1:3">
+    <row r="477" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A477" s="1" t="s">
         <v>1428</v>
       </c>
@@ -14803,7 +14833,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="478" spans="1:3">
+    <row r="478" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A478" s="1" t="s">
         <v>1431</v>
       </c>
@@ -14814,7 +14844,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="479" spans="1:3">
+    <row r="479" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A479" s="1" t="s">
         <v>1434</v>
       </c>
@@ -14825,7 +14855,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="480" spans="1:3">
+    <row r="480" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A480" s="1" t="s">
         <v>1437</v>
       </c>
@@ -14836,7 +14866,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="481" spans="1:3">
+    <row r="481" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A481" s="1" t="s">
         <v>1440</v>
       </c>
@@ -14847,7 +14877,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="482" spans="1:3">
+    <row r="482" spans="1:3" ht="90" x14ac:dyDescent="0.2">
       <c r="A482" s="1" t="s">
         <v>1443</v>
       </c>
@@ -14858,7 +14888,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="483" spans="1:3">
+    <row r="483" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A483" s="1" t="s">
         <v>1446</v>
       </c>
@@ -14869,7 +14899,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="484" spans="1:3">
+    <row r="484" spans="1:3" ht="105" x14ac:dyDescent="0.2">
       <c r="A484" s="1" t="s">
         <v>1449</v>
       </c>
@@ -14880,7 +14910,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="485" spans="1:3">
+    <row r="485" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A485" s="1" t="s">
         <v>1452</v>
       </c>
@@ -14891,7 +14921,7 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="486" spans="1:3">
+    <row r="486" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A486" s="1" t="s">
         <v>1455</v>
       </c>
@@ -14902,7 +14932,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="487" spans="1:3">
+    <row r="487" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A487" s="1" t="s">
         <v>1458</v>
       </c>
@@ -14913,7 +14943,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="488" spans="1:3">
+    <row r="488" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A488" s="1" t="s">
         <v>1461</v>
       </c>
@@ -14924,7 +14954,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="489" spans="1:3">
+    <row r="489" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A489" s="1" t="s">
         <v>1464</v>
       </c>
@@ -14935,7 +14965,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="490" spans="1:3">
+    <row r="490" spans="1:3" ht="90" x14ac:dyDescent="0.2">
       <c r="A490" s="1" t="s">
         <v>1467</v>
       </c>
@@ -14946,7 +14976,7 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="491" spans="1:3">
+    <row r="491" spans="1:3" ht="90" x14ac:dyDescent="0.2">
       <c r="A491" s="1" t="s">
         <v>1470</v>
       </c>
@@ -14957,7 +14987,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="492" spans="1:3">
+    <row r="492" spans="1:3" ht="90" x14ac:dyDescent="0.2">
       <c r="A492" s="1" t="s">
         <v>1473</v>
       </c>
@@ -14968,7 +14998,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="493" spans="1:3">
+    <row r="493" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A493" s="1" t="s">
         <v>1476</v>
       </c>
@@ -14979,7 +15009,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="494" spans="1:3">
+    <row r="494" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A494" s="1" t="s">
         <v>1479</v>
       </c>
@@ -14990,7 +15020,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="495" spans="1:3">
+    <row r="495" spans="1:3" ht="90" x14ac:dyDescent="0.2">
       <c r="A495" s="1" t="s">
         <v>1482</v>
       </c>
@@ -15001,7 +15031,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="496" spans="1:3">
+    <row r="496" spans="1:3" ht="150" x14ac:dyDescent="0.2">
       <c r="A496" s="1" t="s">
         <v>1485</v>
       </c>
@@ -15012,7 +15042,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="497" spans="1:3">
+    <row r="497" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A497" s="1" t="s">
         <v>1488</v>
       </c>
@@ -15023,7 +15053,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="498" spans="1:3">
+    <row r="498" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A498" s="1" t="s">
         <v>1491</v>
       </c>
@@ -15034,7 +15064,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="499" spans="1:3">
+    <row r="499" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A499" s="1" t="s">
         <v>1494</v>
       </c>
@@ -15045,7 +15075,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="500" spans="1:3">
+    <row r="500" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A500" s="1" t="s">
         <v>1497</v>
       </c>
@@ -15056,7 +15086,7 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="501" spans="1:3">
+    <row r="501" spans="1:3" ht="90" x14ac:dyDescent="0.2">
       <c r="A501" s="1" t="s">
         <v>1500</v>
       </c>
@@ -15067,7 +15097,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="502" spans="1:3">
+    <row r="502" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A502" s="1" t="s">
         <v>1503</v>
       </c>
@@ -15078,7 +15108,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="503" spans="1:3">
+    <row r="503" spans="1:3" ht="120" x14ac:dyDescent="0.2">
       <c r="A503" s="1" t="s">
         <v>1506</v>
       </c>
@@ -15089,7 +15119,7 @@
         <v>1508</v>
       </c>
     </row>
-    <row r="504" spans="1:3">
+    <row r="504" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A504" s="1" t="s">
         <v>1509</v>
       </c>
@@ -15100,7 +15130,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="505" spans="1:3">
+    <row r="505" spans="1:3" ht="105" x14ac:dyDescent="0.2">
       <c r="A505" s="1" t="s">
         <v>1512</v>
       </c>
@@ -15111,7 +15141,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="506" spans="1:3">
+    <row r="506" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A506" s="1" t="s">
         <v>1515</v>
       </c>
@@ -15122,7 +15152,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="507" spans="1:3">
+    <row r="507" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A507" s="1" t="s">
         <v>1518</v>
       </c>
@@ -15133,7 +15163,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="508" spans="1:3">
+    <row r="508" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A508" s="1" t="s">
         <v>1521</v>
       </c>
@@ -15144,7 +15174,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="509" spans="1:3">
+    <row r="509" spans="1:3" ht="120" x14ac:dyDescent="0.2">
       <c r="A509" s="1" t="s">
         <v>1524</v>
       </c>
@@ -15155,7 +15185,7 @@
         <v>1526</v>
       </c>
     </row>
-    <row r="510" spans="1:3">
+    <row r="510" spans="1:3" ht="120" x14ac:dyDescent="0.2">
       <c r="A510" s="1" t="s">
         <v>1527</v>
       </c>
@@ -15166,7 +15196,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="511" spans="1:3">
+    <row r="511" spans="1:3" ht="90" x14ac:dyDescent="0.2">
       <c r="A511" s="1" t="s">
         <v>1530</v>
       </c>
@@ -15177,7 +15207,7 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="512" spans="1:3">
+    <row r="512" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A512" s="1" t="s">
         <v>1533</v>
       </c>
@@ -15188,7 +15218,7 @@
         <v>1535</v>
       </c>
     </row>
-    <row r="513" spans="1:3">
+    <row r="513" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A513" s="1" t="s">
         <v>1536</v>
       </c>
@@ -15199,7 +15229,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="514" spans="1:3">
+    <row r="514" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A514" s="1" t="s">
         <v>1539</v>
       </c>
@@ -15210,7 +15240,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="515" spans="1:3">
+    <row r="515" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A515" s="1" t="s">
         <v>1542</v>
       </c>
@@ -15221,7 +15251,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="516" spans="1:3">
+    <row r="516" spans="1:3" ht="90" x14ac:dyDescent="0.2">
       <c r="A516" s="1" t="s">
         <v>1545</v>
       </c>
@@ -15232,7 +15262,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="517" spans="1:3">
+    <row r="517" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A517" s="1" t="s">
         <v>1548</v>
       </c>
@@ -15243,7 +15273,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="518" spans="1:3">
+    <row r="518" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A518" s="1" t="s">
         <v>1551</v>
       </c>
@@ -15254,7 +15284,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="519" spans="1:3">
+    <row r="519" spans="1:3" ht="105" x14ac:dyDescent="0.2">
       <c r="A519" s="1" t="s">
         <v>1554</v>
       </c>
@@ -15265,7 +15295,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="520" spans="1:3">
+    <row r="520" spans="1:3" ht="105" x14ac:dyDescent="0.2">
       <c r="A520" s="1" t="s">
         <v>1557</v>
       </c>
@@ -15276,7 +15306,7 @@
         <v>1559</v>
       </c>
     </row>
-    <row r="521" spans="1:3">
+    <row r="521" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A521" s="1" t="s">
         <v>1560</v>
       </c>
@@ -15287,7 +15317,7 @@
         <v>1562</v>
       </c>
     </row>
-    <row r="522" spans="1:3">
+    <row r="522" spans="1:3" ht="105" x14ac:dyDescent="0.2">
       <c r="A522" s="1" t="s">
         <v>1563</v>
       </c>
@@ -15298,7 +15328,7 @@
         <v>1565</v>
       </c>
     </row>
-    <row r="523" spans="1:3">
+    <row r="523" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A523" s="1" t="s">
         <v>1566</v>
       </c>
@@ -15309,7 +15339,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="524" spans="1:3">
+    <row r="524" spans="1:3" ht="120" x14ac:dyDescent="0.2">
       <c r="A524" s="1" t="s">
         <v>1569</v>
       </c>
@@ -15320,7 +15350,7 @@
         <v>1571</v>
       </c>
     </row>
-    <row r="525" spans="1:3">
+    <row r="525" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A525" s="1" t="s">
         <v>1572</v>
       </c>
@@ -15331,7 +15361,7 @@
         <v>1574</v>
       </c>
     </row>
-    <row r="526" spans="1:3">
+    <row r="526" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A526" s="1" t="s">
         <v>1575</v>
       </c>
@@ -15342,7 +15372,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="527" spans="1:3">
+    <row r="527" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A527" s="1" t="s">
         <v>1578</v>
       </c>
@@ -15353,7 +15383,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="528" spans="1:3">
+    <row r="528" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A528" s="1" t="s">
         <v>1581</v>
       </c>
@@ -15364,7 +15394,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="529" spans="1:3">
+    <row r="529" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A529" s="1" t="s">
         <v>1584</v>
       </c>
@@ -15375,7 +15405,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="530" spans="1:3">
+    <row r="530" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A530" s="1" t="s">
         <v>1587</v>
       </c>
@@ -15386,7 +15416,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="531" spans="1:3">
+    <row r="531" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A531" s="1" t="s">
         <v>1590</v>
       </c>
@@ -15397,7 +15427,7 @@
         <v>1592</v>
       </c>
     </row>
-    <row r="532" spans="1:3">
+    <row r="532" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A532" s="1" t="s">
         <v>1593</v>
       </c>
@@ -15408,7 +15438,7 @@
         <v>1595</v>
       </c>
     </row>
-    <row r="533" spans="1:3">
+    <row r="533" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A533" s="1" t="s">
         <v>1596</v>
       </c>
@@ -15419,7 +15449,7 @@
         <v>1598</v>
       </c>
     </row>
-    <row r="534" spans="1:3">
+    <row r="534" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A534" s="1" t="s">
         <v>1599</v>
       </c>
@@ -15430,7 +15460,7 @@
         <v>1601</v>
       </c>
     </row>
-    <row r="535" spans="1:3">
+    <row r="535" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A535" s="1" t="s">
         <v>1602</v>
       </c>
@@ -15441,7 +15471,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="536" spans="1:3">
+    <row r="536" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A536" s="1" t="s">
         <v>1605</v>
       </c>
@@ -15452,7 +15482,7 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="537" spans="1:3">
+    <row r="537" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A537" s="1" t="s">
         <v>1608</v>
       </c>
@@ -15463,7 +15493,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="538" spans="1:3">
+    <row r="538" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A538" s="1" t="s">
         <v>1611</v>
       </c>
@@ -15474,7 +15504,7 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="539" spans="1:3">
+    <row r="539" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A539" s="1" t="s">
         <v>1614</v>
       </c>
@@ -15485,7 +15515,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="540" spans="1:3">
+    <row r="540" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A540" s="1" t="s">
         <v>1617</v>
       </c>
@@ -15496,7 +15526,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="541" spans="1:3">
+    <row r="541" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A541" s="1" t="s">
         <v>1620</v>
       </c>
@@ -15507,7 +15537,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="542" spans="1:3">
+    <row r="542" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A542" s="1" t="s">
         <v>1623</v>
       </c>
@@ -15518,7 +15548,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="543" spans="1:3">
+    <row r="543" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A543" s="1" t="s">
         <v>1626</v>
       </c>
@@ -15529,7 +15559,7 @@
         <v>1628</v>
       </c>
     </row>
-    <row r="544" spans="1:3">
+    <row r="544" spans="1:3" ht="90" x14ac:dyDescent="0.2">
       <c r="A544" s="1" t="s">
         <v>1629</v>
       </c>
@@ -15540,7 +15570,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="545" spans="1:3">
+    <row r="545" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A545" s="1" t="s">
         <v>1632</v>
       </c>
@@ -15551,7 +15581,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="546" spans="1:3">
+    <row r="546" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A546" s="1" t="s">
         <v>1635</v>
       </c>
@@ -15562,7 +15592,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="547" spans="1:3">
+    <row r="547" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A547" s="1" t="s">
         <v>1638</v>
       </c>
@@ -15573,7 +15603,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="548" spans="1:3">
+    <row r="548" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A548" s="1" t="s">
         <v>1641</v>
       </c>
@@ -15584,7 +15614,7 @@
         <v>1643</v>
       </c>
     </row>
-    <row r="549" spans="1:3">
+    <row r="549" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A549" s="1" t="s">
         <v>1644</v>
       </c>
@@ -15595,7 +15625,7 @@
         <v>1646</v>
       </c>
     </row>
-    <row r="550" spans="1:3">
+    <row r="550" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A550" s="1" t="s">
         <v>1647</v>
       </c>
@@ -15606,7 +15636,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="551" spans="1:3">
+    <row r="551" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A551" s="1" t="s">
         <v>1650</v>
       </c>
@@ -15617,7 +15647,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="552" spans="1:3">
+    <row r="552" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A552" s="1" t="s">
         <v>1653</v>
       </c>
@@ -15628,7 +15658,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="553" spans="1:3">
+    <row r="553" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A553" s="1" t="s">
         <v>1656</v>
       </c>
@@ -15639,7 +15669,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="554" spans="1:3">
+    <row r="554" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A554" s="1" t="s">
         <v>1659</v>
       </c>
@@ -15650,7 +15680,7 @@
         <v>1661</v>
       </c>
     </row>
-    <row r="555" spans="1:3">
+    <row r="555" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A555" s="1" t="s">
         <v>1662</v>
       </c>
@@ -15661,7 +15691,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="556" spans="1:3">
+    <row r="556" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A556" s="1" t="s">
         <v>1665</v>
       </c>
@@ -15672,7 +15702,7 @@
         <v>1667</v>
       </c>
     </row>
-    <row r="557" spans="1:3">
+    <row r="557" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A557" s="1" t="s">
         <v>1668</v>
       </c>
@@ -15683,7 +15713,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="558" spans="1:3">
+    <row r="558" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A558" s="1" t="s">
         <v>1671</v>
       </c>
@@ -15694,7 +15724,7 @@
         <v>1673</v>
       </c>
     </row>
-    <row r="559" spans="1:3">
+    <row r="559" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A559" s="1" t="s">
         <v>1674</v>
       </c>
@@ -15705,7 +15735,7 @@
         <v>1676</v>
       </c>
     </row>
-    <row r="560" spans="1:3">
+    <row r="560" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A560" s="1" t="s">
         <v>1677</v>
       </c>
@@ -15716,7 +15746,7 @@
         <v>1679</v>
       </c>
     </row>
-    <row r="561" spans="1:3">
+    <row r="561" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A561" s="1" t="s">
         <v>1680</v>
       </c>
@@ -15727,7 +15757,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="562" spans="1:3">
+    <row r="562" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A562" s="1" t="s">
         <v>1683</v>
       </c>
@@ -15738,7 +15768,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="563" spans="1:3">
+    <row r="563" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A563" s="1" t="s">
         <v>1686</v>
       </c>
@@ -15749,7 +15779,7 @@
         <v>1688</v>
       </c>
     </row>
-    <row r="564" spans="1:3">
+    <row r="564" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A564" s="1" t="s">
         <v>1689</v>
       </c>
@@ -15760,7 +15790,7 @@
         <v>1691</v>
       </c>
     </row>
-    <row r="565" spans="1:3">
+    <row r="565" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A565" s="1" t="s">
         <v>1692</v>
       </c>
@@ -15771,7 +15801,7 @@
         <v>1694</v>
       </c>
     </row>
-    <row r="566" spans="1:3">
+    <row r="566" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A566" s="1" t="s">
         <v>1695</v>
       </c>
@@ -15782,7 +15812,7 @@
         <v>1697</v>
       </c>
     </row>
-    <row r="567" spans="1:3">
+    <row r="567" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A567" s="1" t="s">
         <v>1698</v>
       </c>
@@ -15793,7 +15823,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="568" spans="1:3">
+    <row r="568" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A568" s="1" t="s">
         <v>1701</v>
       </c>
@@ -15804,7 +15834,7 @@
         <v>1703</v>
       </c>
     </row>
-    <row r="569" spans="1:3">
+    <row r="569" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A569" s="1" t="s">
         <v>1704</v>
       </c>
@@ -15815,7 +15845,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="570" spans="1:3">
+    <row r="570" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A570" s="1" t="s">
         <v>1707</v>
       </c>
@@ -15826,7 +15856,7 @@
         <v>1709</v>
       </c>
     </row>
-    <row r="571" spans="1:3">
+    <row r="571" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A571" s="1" t="s">
         <v>1710</v>
       </c>
@@ -15837,7 +15867,7 @@
         <v>1712</v>
       </c>
     </row>
-    <row r="572" spans="1:3">
+    <row r="572" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A572" s="1" t="s">
         <v>1713</v>
       </c>
@@ -15848,7 +15878,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="573" spans="1:3">
+    <row r="573" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A573" s="1" t="s">
         <v>1716</v>
       </c>
@@ -15859,7 +15889,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="574" spans="1:3">
+    <row r="574" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A574" s="1" t="s">
         <v>1719</v>
       </c>
@@ -15870,7 +15900,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="575" spans="1:3">
+    <row r="575" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A575" s="1" t="s">
         <v>1722</v>
       </c>
@@ -15881,7 +15911,7 @@
         <v>1724</v>
       </c>
     </row>
-    <row r="576" spans="1:3">
+    <row r="576" spans="1:3" ht="90" x14ac:dyDescent="0.2">
       <c r="A576" s="1" t="s">
         <v>1725</v>
       </c>
@@ -15892,7 +15922,7 @@
         <v>1727</v>
       </c>
     </row>
-    <row r="577" spans="1:3">
+    <row r="577" spans="1:3" ht="90" x14ac:dyDescent="0.2">
       <c r="A577" s="1" t="s">
         <v>1728</v>
       </c>
@@ -15903,7 +15933,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="578" spans="1:3">
+    <row r="578" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A578" s="1" t="s">
         <v>1731</v>
       </c>
@@ -15914,7 +15944,7 @@
         <v>1733</v>
       </c>
     </row>
-    <row r="579" spans="1:3">
+    <row r="579" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A579" s="1" t="s">
         <v>1734</v>
       </c>
@@ -15925,7 +15955,7 @@
         <v>1736</v>
       </c>
     </row>
-    <row r="580" spans="1:3">
+    <row r="580" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A580" s="1" t="s">
         <v>1737</v>
       </c>
@@ -15936,7 +15966,7 @@
         <v>1739</v>
       </c>
     </row>
-    <row r="581" spans="1:3">
+    <row r="581" spans="1:3" ht="90" x14ac:dyDescent="0.2">
       <c r="A581" s="1" t="s">
         <v>1740</v>
       </c>
@@ -15947,7 +15977,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="582" spans="1:3">
+    <row r="582" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A582" s="1" t="s">
         <v>1743</v>
       </c>
@@ -15958,7 +15988,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="583" spans="1:3">
+    <row r="583" spans="1:3" ht="90" x14ac:dyDescent="0.2">
       <c r="A583" s="1" t="s">
         <v>1746</v>
       </c>
@@ -15969,7 +15999,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="584" spans="1:3">
+    <row r="584" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A584" s="1" t="s">
         <v>1749</v>
       </c>
@@ -15980,7 +16010,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="585" spans="1:3">
+    <row r="585" spans="1:3" ht="105" x14ac:dyDescent="0.2">
       <c r="A585" s="1" t="s">
         <v>1752</v>
       </c>
@@ -15991,7 +16021,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="586" spans="1:3">
+    <row r="586" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A586" s="1" t="s">
         <v>1755</v>
       </c>
@@ -16002,7 +16032,7 @@
         <v>1757</v>
       </c>
     </row>
-    <row r="587" spans="1:3">
+    <row r="587" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A587" s="1" t="s">
         <v>1758</v>
       </c>
@@ -16013,7 +16043,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="588" spans="1:3">
+    <row r="588" spans="1:3" ht="90" x14ac:dyDescent="0.2">
       <c r="A588" s="1" t="s">
         <v>1761</v>
       </c>
@@ -16024,7 +16054,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="589" spans="1:3">
+    <row r="589" spans="1:3" ht="105" x14ac:dyDescent="0.2">
       <c r="A589" s="1" t="s">
         <v>1764</v>
       </c>
@@ -16035,7 +16065,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="590" spans="1:3">
+    <row r="590" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A590" s="1" t="s">
         <v>1767</v>
       </c>
@@ -16046,7 +16076,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="591" spans="1:3">
+    <row r="591" spans="1:3" ht="90" x14ac:dyDescent="0.2">
       <c r="A591" s="1" t="s">
         <v>1770</v>
       </c>
@@ -16057,7 +16087,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="592" spans="1:3">
+    <row r="592" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A592" s="1" t="s">
         <v>1773</v>
       </c>
@@ -16068,7 +16098,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="593" spans="1:3">
+    <row r="593" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A593" s="1" t="s">
         <v>1776</v>
       </c>
@@ -16079,7 +16109,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="594" spans="1:3">
+    <row r="594" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A594" s="1" t="s">
         <v>1779</v>
       </c>
@@ -16090,7 +16120,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="595" spans="1:3">
+    <row r="595" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A595" s="1" t="s">
         <v>1782</v>
       </c>
@@ -16101,7 +16131,7 @@
         <v>1784</v>
       </c>
     </row>
-    <row r="596" spans="1:3">
+    <row r="596" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A596" s="1" t="s">
         <v>1785</v>
       </c>
@@ -16112,7 +16142,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="597" spans="1:3">
+    <row r="597" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A597" s="1" t="s">
         <v>1788</v>
       </c>
@@ -16123,7 +16153,7 @@
         <v>1790</v>
       </c>
     </row>
-    <row r="598" spans="1:3">
+    <row r="598" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A598" s="1" t="s">
         <v>1791</v>
       </c>
@@ -16134,7 +16164,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="599" spans="1:3">
+    <row r="599" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A599" s="1" t="s">
         <v>1794</v>
       </c>
@@ -16145,7 +16175,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="600" spans="1:3">
+    <row r="600" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A600" s="1" t="s">
         <v>1797</v>
       </c>
@@ -16156,7 +16186,7 @@
         <v>1799</v>
       </c>
     </row>
-    <row r="601" spans="1:3">
+    <row r="601" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A601" s="1" t="s">
         <v>1800</v>
       </c>
@@ -16167,7 +16197,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="602" spans="1:3">
+    <row r="602" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A602" s="1" t="s">
         <v>1803</v>
       </c>
@@ -16178,7 +16208,7 @@
         <v>1805</v>
       </c>
     </row>
-    <row r="603" spans="1:3">
+    <row r="603" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A603" s="1" t="s">
         <v>1806</v>
       </c>
@@ -16189,7 +16219,7 @@
         <v>1808</v>
       </c>
     </row>
-    <row r="604" spans="1:3">
+    <row r="604" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A604" s="1" t="s">
         <v>1809</v>
       </c>
@@ -16200,7 +16230,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="605" spans="1:3">
+    <row r="605" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A605" s="1" t="s">
         <v>1812</v>
       </c>
@@ -16211,7 +16241,7 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="606" spans="1:3">
+    <row r="606" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A606" s="1" t="s">
         <v>1815</v>
       </c>
@@ -16222,7 +16252,7 @@
         <v>1817</v>
       </c>
     </row>
-    <row r="607" spans="1:3">
+    <row r="607" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A607" s="1" t="s">
         <v>1818</v>
       </c>
@@ -16233,7 +16263,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="608" spans="1:3">
+    <row r="608" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A608" s="1" t="s">
         <v>1821</v>
       </c>
@@ -16244,7 +16274,7 @@
         <v>1823</v>
       </c>
     </row>
-    <row r="609" spans="1:3">
+    <row r="609" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A609" s="1" t="s">
         <v>1824</v>
       </c>
@@ -16255,7 +16285,7 @@
         <v>1826</v>
       </c>
     </row>
-    <row r="610" spans="1:3">
+    <row r="610" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A610" s="1" t="s">
         <v>1827</v>
       </c>
@@ -16266,7 +16296,7 @@
         <v>1829</v>
       </c>
     </row>
-    <row r="611" spans="1:3">
+    <row r="611" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A611" s="1" t="s">
         <v>1830</v>
       </c>
@@ -16277,7 +16307,7 @@
         <v>1832</v>
       </c>
     </row>
-    <row r="612" spans="1:3">
+    <row r="612" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A612" s="1" t="s">
         <v>1833</v>
       </c>
@@ -16288,7 +16318,7 @@
         <v>1835</v>
       </c>
     </row>
-    <row r="613" spans="1:3">
+    <row r="613" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A613" s="1" t="s">
         <v>1836</v>
       </c>
@@ -16299,7 +16329,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="614" spans="1:3">
+    <row r="614" spans="1:3" ht="90" x14ac:dyDescent="0.2">
       <c r="A614" s="1" t="s">
         <v>1839</v>
       </c>
@@ -16310,7 +16340,7 @@
         <v>1841</v>
       </c>
     </row>
-    <row r="615" spans="1:3">
+    <row r="615" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A615" s="1" t="s">
         <v>1842</v>
       </c>
@@ -16321,7 +16351,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="616" spans="1:3">
+    <row r="616" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A616" s="1" t="s">
         <v>1845</v>
       </c>
@@ -16332,7 +16362,7 @@
         <v>1847</v>
       </c>
     </row>
-    <row r="617" spans="1:3">
+    <row r="617" spans="1:3" ht="90" x14ac:dyDescent="0.2">
       <c r="A617" s="1" t="s">
         <v>1848</v>
       </c>
@@ -16343,7 +16373,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="618" spans="1:3">
+    <row r="618" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A618" s="1" t="s">
         <v>1851</v>
       </c>
@@ -16354,7 +16384,7 @@
         <v>1853</v>
       </c>
     </row>
-    <row r="619" spans="1:3">
+    <row r="619" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A619" s="1" t="s">
         <v>1854</v>
       </c>
@@ -16365,7 +16395,7 @@
         <v>1856</v>
       </c>
     </row>
-    <row r="620" spans="1:3">
+    <row r="620" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A620" s="1" t="s">
         <v>1857</v>
       </c>
@@ -16376,7 +16406,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="621" spans="1:3">
+    <row r="621" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A621" s="1" t="s">
         <v>1860</v>
       </c>
@@ -16387,7 +16417,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="622" spans="1:3">
+    <row r="622" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A622" s="1" t="s">
         <v>1863</v>
       </c>
@@ -16398,7 +16428,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="623" spans="1:3">
+    <row r="623" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A623" s="1" t="s">
         <v>1866</v>
       </c>
@@ -16409,7 +16439,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="624" spans="1:3">
+    <row r="624" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A624" s="1" t="s">
         <v>1869</v>
       </c>
@@ -16420,7 +16450,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="625" spans="1:3">
+    <row r="625" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A625" s="1" t="s">
         <v>1872</v>
       </c>
@@ -16431,7 +16461,7 @@
         <v>1874</v>
       </c>
     </row>
-    <row r="626" spans="1:3">
+    <row r="626" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A626" s="1" t="s">
         <v>1875</v>
       </c>
@@ -16442,7 +16472,7 @@
         <v>1877</v>
       </c>
     </row>
-    <row r="627" spans="1:3">
+    <row r="627" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A627" s="1" t="s">
         <v>1878</v>
       </c>
@@ -16453,7 +16483,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="628" spans="1:3">
+    <row r="628" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A628" s="1" t="s">
         <v>1881</v>
       </c>
@@ -16464,7 +16494,7 @@
         <v>1883</v>
       </c>
     </row>
-    <row r="629" spans="1:3">
+    <row r="629" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A629" s="1" t="s">
         <v>1884</v>
       </c>
@@ -16475,7 +16505,7 @@
         <v>1886</v>
       </c>
     </row>
-    <row r="630" spans="1:3">
+    <row r="630" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A630" s="1" t="s">
         <v>1887</v>
       </c>
@@ -16486,7 +16516,7 @@
         <v>1889</v>
       </c>
     </row>
-    <row r="631" spans="1:3">
+    <row r="631" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A631" s="1" t="s">
         <v>1890</v>
       </c>
@@ -16497,7 +16527,7 @@
         <v>1892</v>
       </c>
     </row>
-    <row r="632" spans="1:3">
+    <row r="632" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A632" s="1" t="s">
         <v>1893</v>
       </c>
@@ -16508,7 +16538,7 @@
         <v>1895</v>
       </c>
     </row>
-    <row r="633" spans="1:3">
+    <row r="633" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A633" s="1" t="s">
         <v>1896</v>
       </c>
@@ -16519,7 +16549,7 @@
         <v>1898</v>
       </c>
     </row>
-    <row r="634" spans="1:3">
+    <row r="634" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A634" s="1" t="s">
         <v>1899</v>
       </c>
@@ -16530,7 +16560,7 @@
         <v>1901</v>
       </c>
     </row>
-    <row r="635" spans="1:3">
+    <row r="635" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A635" s="1" t="s">
         <v>1902</v>
       </c>
@@ -16541,7 +16571,7 @@
         <v>1904</v>
       </c>
     </row>
-    <row r="636" spans="1:3">
+    <row r="636" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A636" s="1" t="s">
         <v>1905</v>
       </c>
@@ -16552,7 +16582,7 @@
         <v>1907</v>
       </c>
     </row>
-    <row r="637" spans="1:3">
+    <row r="637" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A637" s="1" t="s">
         <v>1908</v>
       </c>
@@ -16563,7 +16593,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="638" spans="1:3">
+    <row r="638" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A638" s="1" t="s">
         <v>1911</v>
       </c>
@@ -16574,7 +16604,7 @@
         <v>1913</v>
       </c>
     </row>
-    <row r="639" spans="1:3">
+    <row r="639" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A639" s="1" t="s">
         <v>1914</v>
       </c>
@@ -16585,7 +16615,7 @@
         <v>1916</v>
       </c>
     </row>
-    <row r="640" spans="1:3">
+    <row r="640" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A640" s="1" t="s">
         <v>1917</v>
       </c>
@@ -16596,7 +16626,7 @@
         <v>1919</v>
       </c>
     </row>
-    <row r="641" spans="1:3">
+    <row r="641" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A641" s="1" t="s">
         <v>1920</v>
       </c>
@@ -16607,7 +16637,7 @@
         <v>1922</v>
       </c>
     </row>
-    <row r="642" spans="1:3">
+    <row r="642" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A642" s="1" t="s">
         <v>1923</v>
       </c>
@@ -16618,7 +16648,7 @@
         <v>1925</v>
       </c>
     </row>
-    <row r="643" spans="1:3">
+    <row r="643" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A643" s="1" t="s">
         <v>1926</v>
       </c>
@@ -16629,7 +16659,7 @@
         <v>1928</v>
       </c>
     </row>
-    <row r="644" spans="1:3">
+    <row r="644" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A644" s="1" t="s">
         <v>1929</v>
       </c>
@@ -16640,7 +16670,7 @@
         <v>1931</v>
       </c>
     </row>
-    <row r="645" spans="1:3">
+    <row r="645" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A645" s="1" t="s">
         <v>1932</v>
       </c>
@@ -16651,7 +16681,7 @@
         <v>1934</v>
       </c>
     </row>
-    <row r="646" spans="1:3">
+    <row r="646" spans="1:3" ht="90" x14ac:dyDescent="0.2">
       <c r="A646" s="1" t="s">
         <v>1935</v>
       </c>
@@ -16662,7 +16692,7 @@
         <v>1937</v>
       </c>
     </row>
-    <row r="647" spans="1:3">
+    <row r="647" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A647" s="1" t="s">
         <v>1938</v>
       </c>
@@ -16673,7 +16703,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="648" spans="1:3">
+    <row r="648" spans="1:3" ht="90" x14ac:dyDescent="0.2">
       <c r="A648" s="1" t="s">
         <v>1941</v>
       </c>
@@ -16684,7 +16714,7 @@
         <v>1943</v>
       </c>
     </row>
-    <row r="649" spans="1:3">
+    <row r="649" spans="1:3" ht="120" x14ac:dyDescent="0.2">
       <c r="A649" s="1" t="s">
         <v>1944</v>
       </c>
@@ -16695,7 +16725,7 @@
         <v>1946</v>
       </c>
     </row>
-    <row r="650" spans="1:3">
+    <row r="650" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A650" s="1" t="s">
         <v>1947</v>
       </c>
@@ -16706,7 +16736,7 @@
         <v>1949</v>
       </c>
     </row>
-    <row r="651" spans="1:3">
+    <row r="651" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A651" s="1" t="s">
         <v>1950</v>
       </c>
@@ -16717,7 +16747,7 @@
         <v>1952</v>
       </c>
     </row>
-    <row r="652" spans="1:3">
+    <row r="652" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A652" s="1" t="s">
         <v>1953</v>
       </c>
@@ -16728,7 +16758,7 @@
         <v>1955</v>
       </c>
     </row>
-    <row r="653" spans="1:3">
+    <row r="653" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A653" s="1" t="s">
         <v>1956</v>
       </c>
@@ -16739,7 +16769,7 @@
         <v>1958</v>
       </c>
     </row>
-    <row r="654" spans="1:3">
+    <row r="654" spans="1:3" ht="90" x14ac:dyDescent="0.2">
       <c r="A654" s="1" t="s">
         <v>1959</v>
       </c>
@@ -16750,7 +16780,7 @@
         <v>1961</v>
       </c>
     </row>
-    <row r="655" spans="1:3">
+    <row r="655" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A655" s="1" t="s">
         <v>1962</v>
       </c>
@@ -16761,7 +16791,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="656" spans="1:3">
+    <row r="656" spans="1:3" ht="90" x14ac:dyDescent="0.2">
       <c r="A656" s="1" t="s">
         <v>1965</v>
       </c>
@@ -16772,7 +16802,7 @@
         <v>1967</v>
       </c>
     </row>
-    <row r="657" spans="1:3">
+    <row r="657" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A657" s="1" t="s">
         <v>1968</v>
       </c>
@@ -16783,7 +16813,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="658" spans="1:3">
+    <row r="658" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A658" s="1" t="s">
         <v>1971</v>
       </c>
@@ -16794,7 +16824,7 @@
         <v>1973</v>
       </c>
     </row>
-    <row r="659" spans="1:3">
+    <row r="659" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A659" s="1" t="s">
         <v>1974</v>
       </c>
@@ -16805,7 +16835,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="660" spans="1:3">
+    <row r="660" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A660" s="1" t="s">
         <v>1977</v>
       </c>
@@ -16816,7 +16846,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="661" spans="1:3">
+    <row r="661" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A661" s="1" t="s">
         <v>1980</v>
       </c>
@@ -16827,7 +16857,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="662" spans="1:3">
+    <row r="662" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A662" s="1" t="s">
         <v>1983</v>
       </c>
@@ -16838,7 +16868,7 @@
         <v>1985</v>
       </c>
     </row>
-    <row r="663" spans="1:3">
+    <row r="663" spans="1:3" ht="90" x14ac:dyDescent="0.2">
       <c r="A663" s="1" t="s">
         <v>1986</v>
       </c>
@@ -16849,7 +16879,7 @@
         <v>1988</v>
       </c>
     </row>
-    <row r="664" spans="1:3">
+    <row r="664" spans="1:3" ht="90" x14ac:dyDescent="0.2">
       <c r="A664" s="1" t="s">
         <v>1989</v>
       </c>
@@ -16860,7 +16890,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="665" spans="1:3">
+    <row r="665" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A665" s="1" t="s">
         <v>1992</v>
       </c>
@@ -16871,7 +16901,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="666" spans="1:3">
+    <row r="666" spans="1:3" ht="90" x14ac:dyDescent="0.2">
       <c r="A666" s="1" t="s">
         <v>1995</v>
       </c>
@@ -16882,7 +16912,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="667" spans="1:3">
+    <row r="667" spans="1:3" ht="90" x14ac:dyDescent="0.2">
       <c r="A667" s="1" t="s">
         <v>1998</v>
       </c>
@@ -16893,7 +16923,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="668" spans="1:3">
+    <row r="668" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A668" s="1" t="s">
         <v>2001</v>
       </c>
@@ -16904,7 +16934,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="669" spans="1:3">
+    <row r="669" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A669" s="1" t="s">
         <v>2004</v>
       </c>
@@ -16915,7 +16945,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="670" spans="1:3">
+    <row r="670" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A670" s="1" t="s">
         <v>2007</v>
       </c>
@@ -16926,7 +16956,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="671" spans="1:3">
+    <row r="671" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A671" s="1" t="s">
         <v>2010</v>
       </c>
@@ -16937,7 +16967,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="672" spans="1:3">
+    <row r="672" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A672" s="1" t="s">
         <v>2013</v>
       </c>
@@ -16948,7 +16978,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="673" spans="1:3">
+    <row r="673" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A673" s="1" t="s">
         <v>2016</v>
       </c>
@@ -16959,7 +16989,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="674" spans="1:3">
+    <row r="674" spans="1:3" ht="165" x14ac:dyDescent="0.2">
       <c r="A674" s="1" t="s">
         <v>2019</v>
       </c>
@@ -16970,7 +17000,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="675" spans="1:3">
+    <row r="675" spans="1:3" ht="90" x14ac:dyDescent="0.2">
       <c r="A675" s="1" t="s">
         <v>2022</v>
       </c>
@@ -16981,7 +17011,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="676" spans="1:3">
+    <row r="676" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A676" s="1" t="s">
         <v>2025</v>
       </c>
@@ -16992,7 +17022,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="677" spans="1:3">
+    <row r="677" spans="1:3" ht="90" x14ac:dyDescent="0.2">
       <c r="A677" s="1" t="s">
         <v>2028</v>
       </c>
@@ -17003,7 +17033,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="678" spans="1:3">
+    <row r="678" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A678" s="1" t="s">
         <v>2031</v>
       </c>
@@ -17014,7 +17044,7 @@
         <v>2033</v>
       </c>
     </row>
-    <row r="679" spans="1:3">
+    <row r="679" spans="1:3" ht="105" x14ac:dyDescent="0.2">
       <c r="A679" s="1" t="s">
         <v>2034</v>
       </c>
@@ -17025,7 +17055,7 @@
         <v>2036</v>
       </c>
     </row>
-    <row r="680" spans="1:3">
+    <row r="680" spans="1:3" ht="105" x14ac:dyDescent="0.2">
       <c r="A680" s="1" t="s">
         <v>2037</v>
       </c>
@@ -17036,7 +17066,7 @@
         <v>2039</v>
       </c>
     </row>
-    <row r="681" spans="1:3">
+    <row r="681" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A681" s="1" t="s">
         <v>2040</v>
       </c>
@@ -17047,7 +17077,7 @@
         <v>2042</v>
       </c>
     </row>
-    <row r="682" spans="1:3">
+    <row r="682" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A682" s="1" t="s">
         <v>2043</v>
       </c>
@@ -17058,7 +17088,7 @@
         <v>2045</v>
       </c>
     </row>
-    <row r="683" spans="1:3">
+    <row r="683" spans="1:3" ht="90" x14ac:dyDescent="0.2">
       <c r="A683" s="1" t="s">
         <v>2046</v>
       </c>
@@ -17069,7 +17099,7 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="684" spans="1:3">
+    <row r="684" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A684" s="1" t="s">
         <v>2049</v>
       </c>
@@ -17080,7 +17110,7 @@
         <v>2051</v>
       </c>
     </row>
-    <row r="685" spans="1:3">
+    <row r="685" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A685" s="1" t="s">
         <v>2052</v>
       </c>
@@ -17091,7 +17121,7 @@
         <v>2054</v>
       </c>
     </row>
-    <row r="686" spans="1:3">
+    <row r="686" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A686" s="1" t="s">
         <v>2055</v>
       </c>
@@ -17102,7 +17132,7 @@
         <v>2057</v>
       </c>
     </row>
-    <row r="687" spans="1:3">
+    <row r="687" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A687" s="1" t="s">
         <v>2058</v>
       </c>
@@ -17113,7 +17143,7 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="688" spans="1:3">
+    <row r="688" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A688" s="1" t="s">
         <v>2061</v>
       </c>
@@ -17124,7 +17154,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="689" spans="1:3">
+    <row r="689" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A689" s="1" t="s">
         <v>2064</v>
       </c>
@@ -17135,7 +17165,7 @@
         <v>2066</v>
       </c>
     </row>
-    <row r="690" spans="1:3">
+    <row r="690" spans="1:3" ht="90" x14ac:dyDescent="0.2">
       <c r="A690" s="1" t="s">
         <v>2067</v>
       </c>
@@ -17146,7 +17176,7 @@
         <v>2069</v>
       </c>
     </row>
-    <row r="691" spans="1:3">
+    <row r="691" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A691" s="1" t="s">
         <v>2070</v>
       </c>
@@ -17157,7 +17187,7 @@
         <v>2072</v>
       </c>
     </row>
-    <row r="692" spans="1:3">
+    <row r="692" spans="1:3" ht="90" x14ac:dyDescent="0.2">
       <c r="A692" s="1" t="s">
         <v>2073</v>
       </c>
@@ -17168,7 +17198,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="693" spans="1:3">
+    <row r="693" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A693" s="1" t="s">
         <v>2076</v>
       </c>
@@ -17179,7 +17209,7 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="694" spans="1:3">
+    <row r="694" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A694" s="1" t="s">
         <v>2079</v>
       </c>
@@ -17190,7 +17220,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="695" spans="1:3">
+    <row r="695" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A695" s="1" t="s">
         <v>2082</v>
       </c>
@@ -17201,7 +17231,7 @@
         <v>2084</v>
       </c>
     </row>
-    <row r="696" spans="1:3">
+    <row r="696" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A696" s="1" t="s">
         <v>2085</v>
       </c>
@@ -17212,7 +17242,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="697" spans="1:3">
+    <row r="697" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A697" s="1" t="s">
         <v>2088</v>
       </c>
@@ -17223,7 +17253,7 @@
         <v>2090</v>
       </c>
     </row>
-    <row r="698" spans="1:3">
+    <row r="698" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A698" s="1" t="s">
         <v>2091</v>
       </c>
@@ -17234,7 +17264,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="699" spans="1:3">
+    <row r="699" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A699" s="1" t="s">
         <v>2094</v>
       </c>
@@ -17245,7 +17275,7 @@
         <v>2096</v>
       </c>
     </row>
-    <row r="700" spans="1:3">
+    <row r="700" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A700" s="1" t="s">
         <v>2097</v>
       </c>
@@ -17256,7 +17286,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="701" spans="1:3">
+    <row r="701" spans="1:3" ht="90" x14ac:dyDescent="0.2">
       <c r="A701" s="1" t="s">
         <v>2100</v>
       </c>
@@ -17267,7 +17297,7 @@
         <v>2102</v>
       </c>
     </row>
-    <row r="702" spans="1:3">
+    <row r="702" spans="1:3" ht="120" x14ac:dyDescent="0.2">
       <c r="A702" s="1" t="s">
         <v>2103</v>
       </c>
@@ -17278,7 +17308,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="703" spans="1:3">
+    <row r="703" spans="1:3" ht="165" x14ac:dyDescent="0.2">
       <c r="A703" s="1" t="s">
         <v>2106</v>
       </c>
@@ -17289,7 +17319,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="704" spans="1:3">
+    <row r="704" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A704" s="1" t="s">
         <v>2109</v>
       </c>
@@ -17300,7 +17330,7 @@
         <v>2111</v>
       </c>
     </row>
-    <row r="705" spans="1:3">
+    <row r="705" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A705" s="1" t="s">
         <v>2112</v>
       </c>
@@ -17311,7 +17341,7 @@
         <v>2114</v>
       </c>
     </row>
-    <row r="706" spans="1:3">
+    <row r="706" spans="1:3" ht="105" x14ac:dyDescent="0.2">
       <c r="A706" s="1" t="s">
         <v>2115</v>
       </c>
@@ -17322,7 +17352,7 @@
         <v>2117</v>
       </c>
     </row>
-    <row r="707" spans="1:3">
+    <row r="707" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A707" s="1" t="s">
         <v>2118</v>
       </c>
@@ -17333,7 +17363,7 @@
         <v>2120</v>
       </c>
     </row>
-    <row r="708" spans="1:3">
+    <row r="708" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A708" s="1" t="s">
         <v>2121</v>
       </c>
@@ -17344,7 +17374,7 @@
         <v>2123</v>
       </c>
     </row>
-    <row r="709" spans="1:3">
+    <row r="709" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A709" s="1" t="s">
         <v>2124</v>
       </c>
@@ -17355,7 +17385,7 @@
         <v>2126</v>
       </c>
     </row>
-    <row r="710" spans="1:3">
+    <row r="710" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A710" s="1" t="s">
         <v>2127</v>
       </c>
@@ -17366,7 +17396,7 @@
         <v>2129</v>
       </c>
     </row>
-    <row r="711" spans="1:3">
+    <row r="711" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A711" s="1" t="s">
         <v>2130</v>
       </c>
@@ -17377,7 +17407,7 @@
         <v>2132</v>
       </c>
     </row>
-    <row r="712" spans="1:3">
+    <row r="712" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A712" s="1" t="s">
         <v>2133</v>
       </c>
@@ -17388,7 +17418,7 @@
         <v>2135</v>
       </c>
     </row>
-    <row r="713" spans="1:3">
+    <row r="713" spans="1:3" ht="120" x14ac:dyDescent="0.2">
       <c r="A713" s="1" t="s">
         <v>2136</v>
       </c>
@@ -17399,7 +17429,7 @@
         <v>2138</v>
       </c>
     </row>
-    <row r="714" spans="1:3">
+    <row r="714" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A714" s="1" t="s">
         <v>2139</v>
       </c>
@@ -17410,7 +17440,7 @@
         <v>2141</v>
       </c>
     </row>
-    <row r="715" spans="1:3">
+    <row r="715" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A715" s="1" t="s">
         <v>2142</v>
       </c>
@@ -17421,7 +17451,7 @@
         <v>2144</v>
       </c>
     </row>
-    <row r="716" spans="1:3">
+    <row r="716" spans="1:3" ht="105" x14ac:dyDescent="0.2">
       <c r="A716" s="1" t="s">
         <v>2145</v>
       </c>
@@ -17432,7 +17462,7 @@
         <v>2147</v>
       </c>
     </row>
-    <row r="717" spans="1:3">
+    <row r="717" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A717" s="1" t="s">
         <v>2148</v>
       </c>
@@ -17443,7 +17473,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="718" spans="1:3">
+    <row r="718" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A718" s="1" t="s">
         <v>2151</v>
       </c>
@@ -17454,7 +17484,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="719" spans="1:3">
+    <row r="719" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A719" s="1" t="s">
         <v>2154</v>
       </c>
@@ -17465,7 +17495,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="720" spans="1:3">
+    <row r="720" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A720" s="1" t="s">
         <v>2157</v>
       </c>
@@ -17476,7 +17506,7 @@
         <v>2159</v>
       </c>
     </row>
-    <row r="721" spans="1:3">
+    <row r="721" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A721" s="1" t="s">
         <v>2160</v>
       </c>
@@ -17487,7 +17517,7 @@
         <v>2162</v>
       </c>
     </row>
-    <row r="722" spans="1:3">
+    <row r="722" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A722" s="1" t="s">
         <v>2163</v>
       </c>
@@ -17498,7 +17528,7 @@
         <v>2165</v>
       </c>
     </row>
-    <row r="723" spans="1:3">
+    <row r="723" spans="1:3" ht="105" x14ac:dyDescent="0.2">
       <c r="A723" s="1" t="s">
         <v>2166</v>
       </c>
@@ -17509,7 +17539,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="724" spans="1:3">
+    <row r="724" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A724" s="1" t="s">
         <v>2169</v>
       </c>
@@ -17520,7 +17550,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="725" spans="1:3">
+    <row r="725" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A725" s="1" t="s">
         <v>2172</v>
       </c>
@@ -17531,7 +17561,7 @@
         <v>2174</v>
       </c>
     </row>
-    <row r="726" spans="1:3">
+    <row r="726" spans="1:3" ht="90" x14ac:dyDescent="0.2">
       <c r="A726" s="1" t="s">
         <v>2175</v>
       </c>
@@ -17542,7 +17572,7 @@
         <v>2177</v>
       </c>
     </row>
-    <row r="727" spans="1:3">
+    <row r="727" spans="1:3" ht="105" x14ac:dyDescent="0.2">
       <c r="A727" s="1" t="s">
         <v>2178</v>
       </c>
@@ -17553,7 +17583,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="728" spans="1:3">
+    <row r="728" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A728" s="1" t="s">
         <v>2181</v>
       </c>
@@ -17564,7 +17594,7 @@
         <v>2183</v>
       </c>
     </row>
-    <row r="729" spans="1:3">
+    <row r="729" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A729" s="1" t="s">
         <v>2184</v>
       </c>
@@ -17575,7 +17605,7 @@
         <v>2186</v>
       </c>
     </row>
-    <row r="730" spans="1:3">
+    <row r="730" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A730" s="1" t="s">
         <v>2187</v>
       </c>
@@ -17586,7 +17616,7 @@
         <v>2189</v>
       </c>
     </row>
-    <row r="731" spans="1:3">
+    <row r="731" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A731" s="1" t="s">
         <v>2190</v>
       </c>
@@ -17597,7 +17627,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="732" spans="1:3">
+    <row r="732" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A732" s="1" t="s">
         <v>2193</v>
       </c>
@@ -17608,7 +17638,7 @@
         <v>2195</v>
       </c>
     </row>
-    <row r="733" spans="1:3">
+    <row r="733" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A733" s="1" t="s">
         <v>2196</v>
       </c>
@@ -17619,7 +17649,7 @@
         <v>2198</v>
       </c>
     </row>
-    <row r="734" spans="1:3">
+    <row r="734" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A734" s="1" t="s">
         <v>2199</v>
       </c>
@@ -17630,7 +17660,7 @@
         <v>2201</v>
       </c>
     </row>
-    <row r="735" spans="1:3">
+    <row r="735" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A735" s="1" t="s">
         <v>2202</v>
       </c>
@@ -17641,7 +17671,7 @@
         <v>2204</v>
       </c>
     </row>
-    <row r="736" spans="1:3">
+    <row r="736" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A736" s="1" t="s">
         <v>2205</v>
       </c>
@@ -17652,7 +17682,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="737" spans="1:3">
+    <row r="737" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A737" s="1" t="s">
         <v>2208</v>
       </c>
@@ -17663,7 +17693,7 @@
         <v>2210</v>
       </c>
     </row>
-    <row r="738" spans="1:3">
+    <row r="738" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A738" s="1" t="s">
         <v>2211</v>
       </c>
@@ -17674,7 +17704,7 @@
         <v>2213</v>
       </c>
     </row>
-    <row r="739" spans="1:3">
+    <row r="739" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A739" s="1" t="s">
         <v>2214</v>
       </c>
@@ -17685,7 +17715,7 @@
         <v>2216</v>
       </c>
     </row>
-    <row r="740" spans="1:3">
+    <row r="740" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A740" s="1" t="s">
         <v>2217</v>
       </c>
@@ -17696,7 +17726,7 @@
         <v>2219</v>
       </c>
     </row>
-    <row r="741" spans="1:3">
+    <row r="741" spans="1:3" ht="150" x14ac:dyDescent="0.2">
       <c r="A741" s="1" t="s">
         <v>2220</v>
       </c>
@@ -17707,7 +17737,7 @@
         <v>2222</v>
       </c>
     </row>
-    <row r="742" spans="1:3">
+    <row r="742" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A742" s="1" t="s">
         <v>2223</v>
       </c>
@@ -17718,7 +17748,7 @@
         <v>2225</v>
       </c>
     </row>
-    <row r="743" spans="1:3">
+    <row r="743" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A743" s="1" t="s">
         <v>2226</v>
       </c>
@@ -17729,7 +17759,7 @@
         <v>2228</v>
       </c>
     </row>
-    <row r="744" spans="1:3">
+    <row r="744" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A744" s="1" t="s">
         <v>2229</v>
       </c>
@@ -17740,7 +17770,7 @@
         <v>2231</v>
       </c>
     </row>
-    <row r="745" spans="1:3">
+    <row r="745" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A745" s="1" t="s">
         <v>2232</v>
       </c>
@@ -17751,7 +17781,7 @@
         <v>2234</v>
       </c>
     </row>
-    <row r="746" spans="1:3">
+    <row r="746" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A746" s="1" t="s">
         <v>2235</v>
       </c>
@@ -17762,7 +17792,7 @@
         <v>2237</v>
       </c>
     </row>
-    <row r="747" spans="1:3">
+    <row r="747" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A747" s="1" t="s">
         <v>2238</v>
       </c>
@@ -17773,7 +17803,7 @@
         <v>2240</v>
       </c>
     </row>
-    <row r="748" spans="1:3">
+    <row r="748" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A748" s="1" t="s">
         <v>2241</v>
       </c>
@@ -17784,7 +17814,7 @@
         <v>2243</v>
       </c>
     </row>
-    <row r="749" spans="1:3">
+    <row r="749" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A749" s="1" t="s">
         <v>2244</v>
       </c>
@@ -17795,7 +17825,7 @@
         <v>2246</v>
       </c>
     </row>
-    <row r="750" spans="1:3">
+    <row r="750" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A750" s="1" t="s">
         <v>2247</v>
       </c>
@@ -17806,7 +17836,7 @@
         <v>2249</v>
       </c>
     </row>
-    <row r="751" spans="1:3">
+    <row r="751" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A751" s="1" t="s">
         <v>2250</v>
       </c>
@@ -17817,7 +17847,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="752" spans="1:3">
+    <row r="752" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A752" s="1" t="s">
         <v>2253</v>
       </c>
@@ -17828,7 +17858,7 @@
         <v>2255</v>
       </c>
     </row>
-    <row r="753" spans="1:3">
+    <row r="753" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A753" s="1" t="s">
         <v>2256</v>
       </c>
@@ -17839,7 +17869,7 @@
         <v>2258</v>
       </c>
     </row>
-    <row r="754" spans="1:3">
+    <row r="754" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A754" s="1" t="s">
         <v>2259</v>
       </c>
@@ -17850,7 +17880,7 @@
         <v>2261</v>
       </c>
     </row>
-    <row r="755" spans="1:3">
+    <row r="755" spans="1:3" ht="90" x14ac:dyDescent="0.2">
       <c r="A755" s="1" t="s">
         <v>2262</v>
       </c>
@@ -17861,7 +17891,7 @@
         <v>2264</v>
       </c>
     </row>
-    <row r="756" spans="1:3">
+    <row r="756" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A756" s="1" t="s">
         <v>2265</v>
       </c>
@@ -17872,7 +17902,7 @@
         <v>2267</v>
       </c>
     </row>
-    <row r="757" spans="1:3">
+    <row r="757" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A757" s="1" t="s">
         <v>2268</v>
       </c>
@@ -17883,7 +17913,7 @@
         <v>2270</v>
       </c>
     </row>
-    <row r="758" spans="1:3">
+    <row r="758" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A758" s="1" t="s">
         <v>2271</v>
       </c>
@@ -17894,7 +17924,7 @@
         <v>2273</v>
       </c>
     </row>
-    <row r="759" spans="1:3">
+    <row r="759" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A759" s="1" t="s">
         <v>2274</v>
       </c>
@@ -17905,7 +17935,7 @@
         <v>2276</v>
       </c>
     </row>
-    <row r="760" spans="1:3">
+    <row r="760" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A760" s="1" t="s">
         <v>2277</v>
       </c>
@@ -17916,7 +17946,7 @@
         <v>2279</v>
       </c>
     </row>
-    <row r="761" spans="1:3">
+    <row r="761" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A761" s="1" t="s">
         <v>2280</v>
       </c>
@@ -17927,7 +17957,7 @@
         <v>2282</v>
       </c>
     </row>
-    <row r="762" spans="1:3">
+    <row r="762" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A762" s="1" t="s">
         <v>2283</v>
       </c>
@@ -17938,7 +17968,7 @@
         <v>2285</v>
       </c>
     </row>
-    <row r="763" spans="1:3">
+    <row r="763" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A763" s="1" t="s">
         <v>2286</v>
       </c>
@@ -17949,7 +17979,7 @@
         <v>2288</v>
       </c>
     </row>
-    <row r="764" spans="1:3">
+    <row r="764" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A764" s="1" t="s">
         <v>2289</v>
       </c>
@@ -17960,7 +17990,7 @@
         <v>2291</v>
       </c>
     </row>
-    <row r="765" spans="1:3">
+    <row r="765" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A765" s="1" t="s">
         <v>2292</v>
       </c>
@@ -17971,7 +18001,7 @@
         <v>2294</v>
       </c>
     </row>
-    <row r="766" spans="1:3">
+    <row r="766" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A766" s="1" t="s">
         <v>2295</v>
       </c>
@@ -17982,7 +18012,7 @@
         <v>2297</v>
       </c>
     </row>
-    <row r="767" spans="1:3">
+    <row r="767" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A767" s="1" t="s">
         <v>2298</v>
       </c>
@@ -17993,7 +18023,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="768" spans="1:3">
+    <row r="768" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A768" s="1" t="s">
         <v>2301</v>
       </c>
@@ -18004,7 +18034,7 @@
         <v>2303</v>
       </c>
     </row>
-    <row r="769" spans="1:3">
+    <row r="769" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A769" s="1" t="s">
         <v>2304</v>
       </c>
@@ -18015,7 +18045,7 @@
         <v>2306</v>
       </c>
     </row>
-    <row r="770" spans="1:3">
+    <row r="770" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A770" s="1" t="s">
         <v>2307</v>
       </c>
@@ -18026,7 +18056,7 @@
         <v>2309</v>
       </c>
     </row>
-    <row r="771" spans="1:3">
+    <row r="771" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A771" s="1" t="s">
         <v>2310</v>
       </c>
@@ -18037,7 +18067,7 @@
         <v>2312</v>
       </c>
     </row>
-    <row r="772" spans="1:3">
+    <row r="772" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A772" s="1" t="s">
         <v>2313</v>
       </c>
@@ -18048,7 +18078,7 @@
         <v>2315</v>
       </c>
     </row>
-    <row r="773" spans="1:3">
+    <row r="773" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A773" s="1" t="s">
         <v>2316</v>
       </c>
@@ -18059,7 +18089,7 @@
         <v>2318</v>
       </c>
     </row>
-    <row r="774" spans="1:3">
+    <row r="774" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A774" s="1" t="s">
         <v>2319</v>
       </c>
@@ -18070,7 +18100,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="775" spans="1:3">
+    <row r="775" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A775" s="1" t="s">
         <v>2322</v>
       </c>
@@ -18081,7 +18111,7 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="776" spans="1:3">
+    <row r="776" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A776" s="1" t="s">
         <v>2325</v>
       </c>
@@ -18092,7 +18122,7 @@
         <v>2327</v>
       </c>
     </row>
-    <row r="777" spans="1:3">
+    <row r="777" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A777" s="1" t="s">
         <v>2328</v>
       </c>
@@ -18103,7 +18133,7 @@
         <v>2330</v>
       </c>
     </row>
-    <row r="778" spans="1:3">
+    <row r="778" spans="1:3" ht="90" x14ac:dyDescent="0.2">
       <c r="A778" s="1" t="s">
         <v>2331</v>
       </c>
@@ -18114,7 +18144,7 @@
         <v>2333</v>
       </c>
     </row>
-    <row r="779" spans="1:3">
+    <row r="779" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A779" s="1" t="s">
         <v>2334</v>
       </c>
@@ -18125,7 +18155,7 @@
         <v>2336</v>
       </c>
     </row>
-    <row r="780" spans="1:3">
+    <row r="780" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A780" s="1" t="s">
         <v>2337</v>
       </c>
@@ -18136,7 +18166,7 @@
         <v>2339</v>
       </c>
     </row>
-    <row r="781" spans="1:3">
+    <row r="781" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A781" s="1" t="s">
         <v>2340</v>
       </c>
@@ -18147,7 +18177,7 @@
         <v>2342</v>
       </c>
     </row>
-    <row r="782" spans="1:3">
+    <row r="782" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A782" s="1" t="s">
         <v>2343</v>
       </c>
@@ -18158,7 +18188,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="783" spans="1:3">
+    <row r="783" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A783" s="1" t="s">
         <v>2346</v>
       </c>
@@ -18169,7 +18199,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="784" spans="1:3">
+    <row r="784" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A784" s="1" t="s">
         <v>2349</v>
       </c>
@@ -18180,7 +18210,7 @@
         <v>2351</v>
       </c>
     </row>
-    <row r="785" spans="1:3">
+    <row r="785" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A785" s="1" t="s">
         <v>2352</v>
       </c>
@@ -18191,7 +18221,7 @@
         <v>2354</v>
       </c>
     </row>
-    <row r="786" spans="1:3">
+    <row r="786" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A786" s="1" t="s">
         <v>2355</v>
       </c>
@@ -18202,7 +18232,7 @@
         <v>2357</v>
       </c>
     </row>
-    <row r="787" spans="1:3">
+    <row r="787" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A787" s="1" t="s">
         <v>2358</v>
       </c>
@@ -18213,7 +18243,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="788" spans="1:3">
+    <row r="788" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A788" s="1" t="s">
         <v>2361</v>
       </c>
@@ -18224,7 +18254,7 @@
         <v>2363</v>
       </c>
     </row>
-    <row r="789" spans="1:3">
+    <row r="789" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A789" s="1" t="s">
         <v>2364</v>
       </c>
@@ -18235,7 +18265,7 @@
         <v>2366</v>
       </c>
     </row>
-    <row r="790" spans="1:3">
+    <row r="790" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A790" s="1" t="s">
         <v>2367</v>
       </c>
@@ -18246,7 +18276,7 @@
         <v>2369</v>
       </c>
     </row>
-    <row r="791" spans="1:3">
+    <row r="791" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A791" s="1" t="s">
         <v>2370</v>
       </c>
@@ -18257,7 +18287,7 @@
         <v>2372</v>
       </c>
     </row>
-    <row r="792" spans="1:3">
+    <row r="792" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A792" s="1" t="s">
         <v>2373</v>
       </c>
@@ -18268,7 +18298,7 @@
         <v>2375</v>
       </c>
     </row>
-    <row r="793" spans="1:3">
+    <row r="793" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A793" s="1" t="s">
         <v>2376</v>
       </c>
@@ -18279,7 +18309,7 @@
         <v>2378</v>
       </c>
     </row>
-    <row r="794" spans="1:3">
+    <row r="794" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A794" s="1" t="s">
         <v>2379</v>
       </c>
@@ -18290,7 +18320,7 @@
         <v>2381</v>
       </c>
     </row>
-    <row r="795" spans="1:3">
+    <row r="795" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A795" s="1" t="s">
         <v>2382</v>
       </c>
@@ -18301,7 +18331,7 @@
         <v>2384</v>
       </c>
     </row>
-    <row r="796" spans="1:3">
+    <row r="796" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A796" s="1" t="s">
         <v>2385</v>
       </c>
@@ -18312,7 +18342,7 @@
         <v>2387</v>
       </c>
     </row>
-    <row r="797" spans="1:3">
+    <row r="797" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A797" s="1" t="s">
         <v>2388</v>
       </c>
@@ -18323,7 +18353,7 @@
         <v>2390</v>
       </c>
     </row>
-    <row r="798" spans="1:3">
+    <row r="798" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A798" s="1" t="s">
         <v>2391</v>
       </c>
@@ -18334,7 +18364,7 @@
         <v>2393</v>
       </c>
     </row>
-    <row r="799" spans="1:3">
+    <row r="799" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A799" s="1" t="s">
         <v>2394</v>
       </c>
@@ -18345,7 +18375,7 @@
         <v>2396</v>
       </c>
     </row>
-    <row r="800" spans="1:3">
+    <row r="800" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A800" s="1" t="s">
         <v>2397</v>
       </c>
@@ -18356,7 +18386,7 @@
         <v>2399</v>
       </c>
     </row>
-    <row r="801" spans="1:3">
+    <row r="801" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A801" s="1" t="s">
         <v>2400</v>
       </c>
@@ -18367,7 +18397,7 @@
         <v>2402</v>
       </c>
     </row>
-    <row r="802" spans="1:3">
+    <row r="802" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A802" s="1" t="s">
         <v>2403</v>
       </c>
@@ -18378,7 +18408,7 @@
         <v>2405</v>
       </c>
     </row>
-    <row r="803" spans="1:3">
+    <row r="803" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A803" s="1" t="s">
         <v>2406</v>
       </c>
@@ -18389,7 +18419,7 @@
         <v>2408</v>
       </c>
     </row>
-    <row r="804" spans="1:3">
+    <row r="804" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A804" s="1" t="s">
         <v>2409</v>
       </c>
@@ -18400,7 +18430,7 @@
         <v>2411</v>
       </c>
     </row>
-    <row r="805" spans="1:3">
+    <row r="805" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A805" s="1" t="s">
         <v>2412</v>
       </c>
@@ -18411,7 +18441,7 @@
         <v>2414</v>
       </c>
     </row>
-    <row r="806" spans="1:3">
+    <row r="806" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A806" s="1" t="s">
         <v>2415</v>
       </c>
@@ -18422,7 +18452,7 @@
         <v>2417</v>
       </c>
     </row>
-    <row r="807" spans="1:3">
+    <row r="807" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A807" s="1" t="s">
         <v>2418</v>
       </c>
@@ -18433,7 +18463,7 @@
         <v>2420</v>
       </c>
     </row>
-    <row r="808" spans="1:3">
+    <row r="808" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A808" s="1" t="s">
         <v>2421</v>
       </c>
@@ -18444,7 +18474,7 @@
         <v>2423</v>
       </c>
     </row>
-    <row r="809" spans="1:3">
+    <row r="809" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A809" s="1" t="s">
         <v>2424</v>
       </c>
@@ -18455,7 +18485,7 @@
         <v>2426</v>
       </c>
     </row>
-    <row r="810" spans="1:3">
+    <row r="810" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A810" s="1" t="s">
         <v>2427</v>
       </c>
@@ -18466,7 +18496,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="811" spans="1:3">
+    <row r="811" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A811" s="1" t="s">
         <v>2430</v>
       </c>
@@ -18477,7 +18507,7 @@
         <v>2432</v>
       </c>
     </row>
-    <row r="812" spans="1:3">
+    <row r="812" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A812" s="1" t="s">
         <v>2433</v>
       </c>
@@ -18488,7 +18518,7 @@
         <v>2435</v>
       </c>
     </row>
-    <row r="813" spans="1:3">
+    <row r="813" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A813" s="1" t="s">
         <v>2436</v>
       </c>
@@ -18499,7 +18529,7 @@
         <v>2438</v>
       </c>
     </row>
-    <row r="814" spans="1:3">
+    <row r="814" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A814" s="1" t="s">
         <v>2439</v>
       </c>
@@ -18510,7 +18540,7 @@
         <v>2441</v>
       </c>
     </row>
-    <row r="815" spans="1:3">
+    <row r="815" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A815" s="1" t="s">
         <v>2442</v>
       </c>
@@ -18521,7 +18551,7 @@
         <v>2444</v>
       </c>
     </row>
-    <row r="816" spans="1:3">
+    <row r="816" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A816" s="1" t="s">
         <v>2445</v>
       </c>
@@ -18532,7 +18562,7 @@
         <v>2447</v>
       </c>
     </row>
-    <row r="817" spans="1:3">
+    <row r="817" spans="1:3" ht="90" x14ac:dyDescent="0.2">
       <c r="A817" s="1" t="s">
         <v>2448</v>
       </c>
@@ -18543,7 +18573,7 @@
         <v>2450</v>
       </c>
     </row>
-    <row r="818" spans="1:3">
+    <row r="818" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A818" s="1" t="s">
         <v>2451</v>
       </c>
@@ -18554,7 +18584,7 @@
         <v>2453</v>
       </c>
     </row>
-    <row r="819" spans="1:3">
+    <row r="819" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A819" s="1" t="s">
         <v>2454</v>
       </c>
@@ -18565,7 +18595,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="820" spans="1:3">
+    <row r="820" spans="1:3" ht="90" x14ac:dyDescent="0.2">
       <c r="A820" s="1" t="s">
         <v>2457</v>
       </c>
@@ -18576,7 +18606,7 @@
         <v>2459</v>
       </c>
     </row>
-    <row r="821" spans="1:3">
+    <row r="821" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A821" s="1" t="s">
         <v>2460</v>
       </c>
@@ -18587,7 +18617,7 @@
         <v>2462</v>
       </c>
     </row>
-    <row r="822" spans="1:3">
+    <row r="822" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A822" s="1" t="s">
         <v>2463</v>
       </c>
@@ -18598,7 +18628,7 @@
         <v>2465</v>
       </c>
     </row>
-    <row r="823" spans="1:3">
+    <row r="823" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A823" s="1" t="s">
         <v>2466</v>
       </c>
@@ -18609,7 +18639,7 @@
         <v>2468</v>
       </c>
     </row>
-    <row r="824" spans="1:3">
+    <row r="824" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A824" s="1" t="s">
         <v>2469</v>
       </c>
@@ -18620,7 +18650,7 @@
         <v>2471</v>
       </c>
     </row>
-    <row r="825" spans="1:3">
+    <row r="825" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A825" s="1" t="s">
         <v>2472</v>
       </c>
@@ -18631,7 +18661,7 @@
         <v>2474</v>
       </c>
     </row>
-    <row r="826" spans="1:3">
+    <row r="826" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A826" s="1" t="s">
         <v>2475</v>
       </c>
@@ -18642,7 +18672,7 @@
         <v>2477</v>
       </c>
     </row>
-    <row r="827" spans="1:3">
+    <row r="827" spans="1:3" ht="90" x14ac:dyDescent="0.2">
       <c r="A827" s="1" t="s">
         <v>2478</v>
       </c>
@@ -18653,7 +18683,7 @@
         <v>2480</v>
       </c>
     </row>
-    <row r="828" spans="1:3">
+    <row r="828" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A828" s="1" t="s">
         <v>2481</v>
       </c>
@@ -18664,7 +18694,7 @@
         <v>2483</v>
       </c>
     </row>
-    <row r="829" spans="1:3">
+    <row r="829" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A829" s="1" t="s">
         <v>2484</v>
       </c>
@@ -18675,7 +18705,7 @@
         <v>2486</v>
       </c>
     </row>
-    <row r="830" spans="1:3">
+    <row r="830" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A830" s="1" t="s">
         <v>2487</v>
       </c>
@@ -18686,7 +18716,7 @@
         <v>2489</v>
       </c>
     </row>
-    <row r="831" spans="1:3">
+    <row r="831" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A831" s="1" t="s">
         <v>2490</v>
       </c>
@@ -18697,7 +18727,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="832" spans="1:3">
+    <row r="832" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A832" s="1" t="s">
         <v>2493</v>
       </c>
@@ -18708,7 +18738,7 @@
         <v>2495</v>
       </c>
     </row>
-    <row r="833" spans="1:3">
+    <row r="833" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A833" s="1" t="s">
         <v>2496</v>
       </c>
@@ -18719,7 +18749,7 @@
         <v>2498</v>
       </c>
     </row>
-    <row r="834" spans="1:3">
+    <row r="834" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A834" s="1" t="s">
         <v>2499</v>
       </c>
@@ -18730,7 +18760,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="835" spans="1:3">
+    <row r="835" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A835" s="1" t="s">
         <v>2502</v>
       </c>
@@ -18741,7 +18771,7 @@
         <v>2504</v>
       </c>
     </row>
-    <row r="836" spans="1:3">
+    <row r="836" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A836" s="1" t="s">
         <v>2505</v>
       </c>
@@ -18752,7 +18782,7 @@
         <v>2507</v>
       </c>
     </row>
-    <row r="837" spans="1:3">
+    <row r="837" spans="1:3" ht="105" x14ac:dyDescent="0.2">
       <c r="A837" s="1" t="s">
         <v>2508</v>
       </c>
@@ -18763,7 +18793,7 @@
         <v>2510</v>
       </c>
     </row>
-    <row r="838" spans="1:3">
+    <row r="838" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A838" s="1" t="s">
         <v>2511</v>
       </c>
@@ -18774,7 +18804,7 @@
         <v>2513</v>
       </c>
     </row>
-    <row r="839" spans="1:3">
+    <row r="839" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A839" s="1" t="s">
         <v>2514</v>
       </c>
@@ -18785,7 +18815,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="840" spans="1:3">
+    <row r="840" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A840" s="1" t="s">
         <v>2517</v>
       </c>
@@ -18796,7 +18826,7 @@
         <v>2519</v>
       </c>
     </row>
-    <row r="841" spans="1:3">
+    <row r="841" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A841" s="1" t="s">
         <v>2520</v>
       </c>
@@ -18807,7 +18837,7 @@
         <v>2522</v>
       </c>
     </row>
-    <row r="842" spans="1:3">
+    <row r="842" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A842" s="1" t="s">
         <v>2523</v>
       </c>
@@ -18818,7 +18848,7 @@
         <v>2525</v>
       </c>
     </row>
-    <row r="843" spans="1:3">
+    <row r="843" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A843" s="1" t="s">
         <v>2526</v>
       </c>
@@ -18829,7 +18859,7 @@
         <v>2528</v>
       </c>
     </row>
-    <row r="844" spans="1:3">
+    <row r="844" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A844" s="1" t="s">
         <v>2529</v>
       </c>
@@ -18840,7 +18870,7 @@
         <v>2531</v>
       </c>
     </row>
-    <row r="845" spans="1:3">
+    <row r="845" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A845" s="1" t="s">
         <v>2532</v>
       </c>
@@ -18851,7 +18881,7 @@
         <v>2534</v>
       </c>
     </row>
-    <row r="846" spans="1:3">
+    <row r="846" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A846" s="1" t="s">
         <v>2535</v>
       </c>
@@ -18862,7 +18892,7 @@
         <v>2537</v>
       </c>
     </row>
-    <row r="847" spans="1:3">
+    <row r="847" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A847" s="1" t="s">
         <v>2538</v>
       </c>
@@ -18873,7 +18903,7 @@
         <v>2540</v>
       </c>
     </row>
-    <row r="848" spans="1:3">
+    <row r="848" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A848" s="1" t="s">
         <v>2541</v>
       </c>
@@ -18884,7 +18914,7 @@
         <v>2543</v>
       </c>
     </row>
-    <row r="849" spans="1:3">
+    <row r="849" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A849" s="1" t="s">
         <v>2544</v>
       </c>
@@ -18895,7 +18925,7 @@
         <v>2546</v>
       </c>
     </row>
-    <row r="850" spans="1:3">
+    <row r="850" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A850" s="1" t="s">
         <v>2547</v>
       </c>
@@ -18906,7 +18936,7 @@
         <v>2549</v>
       </c>
     </row>
-    <row r="851" spans="1:3">
+    <row r="851" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A851" s="1" t="s">
         <v>2550</v>
       </c>
@@ -18917,7 +18947,7 @@
         <v>2552</v>
       </c>
     </row>
-    <row r="852" spans="1:3">
+    <row r="852" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A852" s="1" t="s">
         <v>2553</v>
       </c>
@@ -18928,7 +18958,7 @@
         <v>2555</v>
       </c>
     </row>
-    <row r="853" spans="1:3">
+    <row r="853" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A853" s="1" t="s">
         <v>2556</v>
       </c>
@@ -18939,7 +18969,7 @@
         <v>2558</v>
       </c>
     </row>
-    <row r="854" spans="1:3">
+    <row r="854" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A854" s="1" t="s">
         <v>2559</v>
       </c>
@@ -18950,7 +18980,7 @@
         <v>2561</v>
       </c>
     </row>
-    <row r="855" spans="1:3">
+    <row r="855" spans="1:3" ht="90" x14ac:dyDescent="0.2">
       <c r="A855" s="1" t="s">
         <v>2562</v>
       </c>
@@ -18961,7 +18991,7 @@
         <v>2564</v>
       </c>
     </row>
-    <row r="856" spans="1:3">
+    <row r="856" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A856" s="1" t="s">
         <v>2565</v>
       </c>
@@ -18972,7 +19002,7 @@
         <v>2567</v>
       </c>
     </row>
-    <row r="857" spans="1:3">
+    <row r="857" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A857" s="1" t="s">
         <v>2568</v>
       </c>
@@ -18983,7 +19013,7 @@
         <v>2570</v>
       </c>
     </row>
-    <row r="858" spans="1:3">
+    <row r="858" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A858" s="1" t="s">
         <v>2571</v>
       </c>
@@ -18994,7 +19024,7 @@
         <v>2573</v>
       </c>
     </row>
-    <row r="859" spans="1:3">
+    <row r="859" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A859" s="1" t="s">
         <v>2574</v>
       </c>
@@ -19005,7 +19035,7 @@
         <v>2576</v>
       </c>
     </row>
-    <row r="860" spans="1:3">
+    <row r="860" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A860" s="1" t="s">
         <v>2577</v>
       </c>
@@ -19016,7 +19046,7 @@
         <v>2579</v>
       </c>
     </row>
-    <row r="861" spans="1:3">
+    <row r="861" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A861" s="1" t="s">
         <v>2580</v>
       </c>
@@ -19027,7 +19057,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="862" spans="1:3">
+    <row r="862" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A862" s="1" t="s">
         <v>2583</v>
       </c>
@@ -19038,7 +19068,7 @@
         <v>2585</v>
       </c>
     </row>
-    <row r="863" spans="1:3">
+    <row r="863" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A863" s="1" t="s">
         <v>2586</v>
       </c>
@@ -19049,7 +19079,7 @@
         <v>2588</v>
       </c>
     </row>
-    <row r="864" spans="1:3">
+    <row r="864" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A864" s="1" t="s">
         <v>2589</v>
       </c>
@@ -19060,7 +19090,7 @@
         <v>2591</v>
       </c>
     </row>
-    <row r="865" spans="1:3">
+    <row r="865" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A865" s="1" t="s">
         <v>2592</v>
       </c>
@@ -19071,7 +19101,7 @@
         <v>2594</v>
       </c>
     </row>
-    <row r="866" spans="1:3">
+    <row r="866" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A866" s="1" t="s">
         <v>2595</v>
       </c>
@@ -19082,7 +19112,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="867" spans="1:3">
+    <row r="867" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A867" s="1" t="s">
         <v>2598</v>
       </c>
@@ -19093,7 +19123,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="868" spans="1:3">
+    <row r="868" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A868" s="1" t="s">
         <v>2601</v>
       </c>
@@ -19104,7 +19134,7 @@
         <v>2603</v>
       </c>
     </row>
-    <row r="869" spans="1:3">
+    <row r="869" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A869" s="1" t="s">
         <v>2604</v>
       </c>
@@ -19115,7 +19145,7 @@
         <v>2606</v>
       </c>
     </row>
-    <row r="870" spans="1:3">
+    <row r="870" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A870" s="1" t="s">
         <v>2607</v>
       </c>
@@ -19126,7 +19156,7 @@
         <v>2609</v>
       </c>
     </row>
-    <row r="871" spans="1:3">
+    <row r="871" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A871" s="1" t="s">
         <v>2610</v>
       </c>
@@ -19137,7 +19167,7 @@
         <v>2612</v>
       </c>
     </row>
-    <row r="872" spans="1:3">
+    <row r="872" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A872" s="1" t="s">
         <v>2613</v>
       </c>
@@ -19148,7 +19178,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="873" spans="1:3">
+    <row r="873" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A873" s="1" t="s">
         <v>2616</v>
       </c>
@@ -19159,7 +19189,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="874" spans="1:3">
+    <row r="874" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A874" s="1" t="s">
         <v>2619</v>
       </c>
@@ -19170,7 +19200,7 @@
         <v>2621</v>
       </c>
     </row>
-    <row r="875" spans="1:3">
+    <row r="875" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A875" s="1" t="s">
         <v>2622</v>
       </c>
@@ -19181,7 +19211,7 @@
         <v>2624</v>
       </c>
     </row>
-    <row r="876" spans="1:3">
+    <row r="876" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A876" s="1" t="s">
         <v>2625</v>
       </c>
@@ -19192,7 +19222,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="877" spans="1:3">
+    <row r="877" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A877" s="1" t="s">
         <v>2628</v>
       </c>
@@ -19203,7 +19233,7 @@
         <v>2630</v>
       </c>
     </row>
-    <row r="878" spans="1:3">
+    <row r="878" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A878" s="1" t="s">
         <v>2631</v>
       </c>
@@ -19214,7 +19244,7 @@
         <v>2633</v>
       </c>
     </row>
-    <row r="879" spans="1:3">
+    <row r="879" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A879" s="1" t="s">
         <v>2634</v>
       </c>
@@ -19225,7 +19255,7 @@
         <v>2636</v>
       </c>
     </row>
-    <row r="880" spans="1:3">
+    <row r="880" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A880" s="1" t="s">
         <v>2637</v>
       </c>
@@ -19236,7 +19266,7 @@
         <v>2639</v>
       </c>
     </row>
-    <row r="881" spans="1:3">
+    <row r="881" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A881" s="1" t="s">
         <v>2640</v>
       </c>
@@ -19247,7 +19277,7 @@
         <v>2642</v>
       </c>
     </row>
-    <row r="882" spans="1:3">
+    <row r="882" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A882" s="1" t="s">
         <v>2643</v>
       </c>
@@ -19258,7 +19288,7 @@
         <v>2645</v>
       </c>
     </row>
-    <row r="883" spans="1:3">
+    <row r="883" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A883" s="1" t="s">
         <v>2646</v>
       </c>
@@ -19269,7 +19299,7 @@
         <v>2648</v>
       </c>
     </row>
-    <row r="884" spans="1:3">
+    <row r="884" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A884" s="1" t="s">
         <v>2649</v>
       </c>
@@ -19280,7 +19310,7 @@
         <v>2651</v>
       </c>
     </row>
-    <row r="885" spans="1:3">
+    <row r="885" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A885" s="1" t="s">
         <v>2652</v>
       </c>
@@ -19291,7 +19321,7 @@
         <v>2654</v>
       </c>
     </row>
-    <row r="886" spans="1:3">
+    <row r="886" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A886" s="1" t="s">
         <v>2655</v>
       </c>
@@ -19302,7 +19332,7 @@
         <v>2657</v>
       </c>
     </row>
-    <row r="887" spans="1:3">
+    <row r="887" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A887" s="1" t="s">
         <v>2658</v>
       </c>
@@ -19313,7 +19343,7 @@
         <v>2660</v>
       </c>
     </row>
-    <row r="888" spans="1:3">
+    <row r="888" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A888" s="1" t="s">
         <v>2661</v>
       </c>
@@ -19324,7 +19354,7 @@
         <v>2663</v>
       </c>
     </row>
-    <row r="889" spans="1:3">
+    <row r="889" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A889" s="1" t="s">
         <v>2664</v>
       </c>
@@ -19335,7 +19365,7 @@
         <v>2666</v>
       </c>
     </row>
-    <row r="890" spans="1:3">
+    <row r="890" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A890" s="1" t="s">
         <v>2667</v>
       </c>
@@ -19346,7 +19376,7 @@
         <v>2669</v>
       </c>
     </row>
-    <row r="891" spans="1:3">
+    <row r="891" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A891" s="1" t="s">
         <v>2670</v>
       </c>
@@ -19357,7 +19387,7 @@
         <v>2672</v>
       </c>
     </row>
-    <row r="892" spans="1:3">
+    <row r="892" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A892" s="1" t="s">
         <v>2673</v>
       </c>
@@ -19368,7 +19398,7 @@
         <v>2675</v>
       </c>
     </row>
-    <row r="893" spans="1:3">
+    <row r="893" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A893" s="1" t="s">
         <v>2676</v>
       </c>
@@ -19379,7 +19409,7 @@
         <v>2678</v>
       </c>
     </row>
-    <row r="894" spans="1:3">
+    <row r="894" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A894" s="1" t="s">
         <v>2679</v>
       </c>
@@ -19390,7 +19420,7 @@
         <v>2681</v>
       </c>
     </row>
-    <row r="895" spans="1:3">
+    <row r="895" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A895" s="1" t="s">
         <v>2682</v>
       </c>
@@ -19401,7 +19431,7 @@
         <v>2684</v>
       </c>
     </row>
-    <row r="896" spans="1:3">
+    <row r="896" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A896" s="1" t="s">
         <v>2685</v>
       </c>
@@ -19412,7 +19442,7 @@
         <v>2687</v>
       </c>
     </row>
-    <row r="897" spans="1:3">
+    <row r="897" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A897" s="1" t="s">
         <v>2688</v>
       </c>
@@ -19423,7 +19453,7 @@
         <v>2690</v>
       </c>
     </row>
-    <row r="898" spans="1:3">
+    <row r="898" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A898" s="1" t="s">
         <v>2691</v>
       </c>
@@ -19434,7 +19464,7 @@
         <v>2693</v>
       </c>
     </row>
-    <row r="899" spans="1:3">
+    <row r="899" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A899" s="1" t="s">
         <v>2694</v>
       </c>
@@ -19445,7 +19475,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="900" spans="1:3">
+    <row r="900" spans="1:3" ht="90" x14ac:dyDescent="0.2">
       <c r="A900" s="1" t="s">
         <v>2697</v>
       </c>
@@ -19456,7 +19486,7 @@
         <v>2699</v>
       </c>
     </row>
-    <row r="901" spans="1:3">
+    <row r="901" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A901" s="1" t="s">
         <v>2700</v>
       </c>
@@ -19467,7 +19497,7 @@
         <v>2702</v>
       </c>
     </row>
-    <row r="902" spans="1:3">
+    <row r="902" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A902" s="1" t="s">
         <v>2703</v>
       </c>
@@ -19478,7 +19508,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="903" spans="1:3">
+    <row r="903" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A903" s="1" t="s">
         <v>2706</v>
       </c>
@@ -19489,7 +19519,7 @@
         <v>2708</v>
       </c>
     </row>
-    <row r="904" spans="1:3">
+    <row r="904" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A904" s="1" t="s">
         <v>2709</v>
       </c>
@@ -19500,7 +19530,7 @@
         <v>2711</v>
       </c>
     </row>
-    <row r="905" spans="1:3">
+    <row r="905" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A905" s="1" t="s">
         <v>2712</v>
       </c>
@@ -19511,7 +19541,7 @@
         <v>2714</v>
       </c>
     </row>
-    <row r="906" spans="1:3">
+    <row r="906" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A906" s="1" t="s">
         <v>2715</v>
       </c>
@@ -19522,7 +19552,7 @@
         <v>2717</v>
       </c>
     </row>
-    <row r="907" spans="1:3">
+    <row r="907" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A907" s="1" t="s">
         <v>2718</v>
       </c>
@@ -19533,7 +19563,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="908" spans="1:3">
+    <row r="908" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A908" s="1" t="s">
         <v>2721</v>
       </c>
@@ -19544,7 +19574,7 @@
         <v>2723</v>
       </c>
     </row>
-    <row r="909" spans="1:3">
+    <row r="909" spans="1:3" ht="90" x14ac:dyDescent="0.2">
       <c r="A909" s="1" t="s">
         <v>2724</v>
       </c>
@@ -19555,7 +19585,7 @@
         <v>2726</v>
       </c>
     </row>
-    <row r="910" spans="1:3">
+    <row r="910" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A910" s="1" t="s">
         <v>2727</v>
       </c>
@@ -19566,7 +19596,7 @@
         <v>2729</v>
       </c>
     </row>
-    <row r="911" spans="1:3">
+    <row r="911" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A911" s="1" t="s">
         <v>2730</v>
       </c>
@@ -19577,7 +19607,7 @@
         <v>2732</v>
       </c>
     </row>
-    <row r="912" spans="1:3">
+    <row r="912" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A912" s="1" t="s">
         <v>2733</v>
       </c>
@@ -19588,7 +19618,7 @@
         <v>2735</v>
       </c>
     </row>
-    <row r="913" spans="1:3">
+    <row r="913" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A913" s="1" t="s">
         <v>2736</v>
       </c>
@@ -19599,7 +19629,7 @@
         <v>2738</v>
       </c>
     </row>
-    <row r="914" spans="1:3">
+    <row r="914" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A914" s="1" t="s">
         <v>2739</v>
       </c>
@@ -19610,7 +19640,7 @@
         <v>2741</v>
       </c>
     </row>
-    <row r="915" spans="1:3">
+    <row r="915" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A915" s="1" t="s">
         <v>2742</v>
       </c>
@@ -19621,7 +19651,7 @@
         <v>2744</v>
       </c>
     </row>
-    <row r="916" spans="1:3">
+    <row r="916" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A916" s="1" t="s">
         <v>2745</v>
       </c>
@@ -19632,7 +19662,7 @@
         <v>2747</v>
       </c>
     </row>
-    <row r="917" spans="1:3">
+    <row r="917" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A917" s="1" t="s">
         <v>2748</v>
       </c>
@@ -19643,7 +19673,7 @@
         <v>2750</v>
       </c>
     </row>
-    <row r="918" spans="1:3">
+    <row r="918" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A918" s="1" t="s">
         <v>2751</v>
       </c>
@@ -19654,7 +19684,7 @@
         <v>2753</v>
       </c>
     </row>
-    <row r="919" spans="1:3">
+    <row r="919" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A919" s="1" t="s">
         <v>2754</v>
       </c>
@@ -19665,7 +19695,7 @@
         <v>2756</v>
       </c>
     </row>
-    <row r="920" spans="1:3">
+    <row r="920" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A920" s="1" t="s">
         <v>2757</v>
       </c>
@@ -19676,7 +19706,7 @@
         <v>2759</v>
       </c>
     </row>
-    <row r="921" spans="1:3">
+    <row r="921" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A921" s="1" t="s">
         <v>2760</v>
       </c>
@@ -19687,7 +19717,7 @@
         <v>2762</v>
       </c>
     </row>
-    <row r="922" spans="1:3">
+    <row r="922" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A922" s="1" t="s">
         <v>2763</v>
       </c>
@@ -19698,7 +19728,7 @@
         <v>2765</v>
       </c>
     </row>
-    <row r="923" spans="1:3">
+    <row r="923" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A923" s="1" t="s">
         <v>2766</v>
       </c>
@@ -19709,7 +19739,7 @@
         <v>2768</v>
       </c>
     </row>
-    <row r="924" spans="1:3">
+    <row r="924" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A924" s="1" t="s">
         <v>2769</v>
       </c>
@@ -19720,7 +19750,7 @@
         <v>2771</v>
       </c>
     </row>
-    <row r="925" spans="1:3">
+    <row r="925" spans="1:3" ht="90" x14ac:dyDescent="0.2">
       <c r="A925" s="1" t="s">
         <v>2772</v>
       </c>
@@ -19731,7 +19761,7 @@
         <v>2774</v>
       </c>
     </row>
-    <row r="926" spans="1:3">
+    <row r="926" spans="1:3" ht="120" x14ac:dyDescent="0.2">
       <c r="A926" s="1" t="s">
         <v>2775</v>
       </c>
@@ -19742,7 +19772,7 @@
         <v>2777</v>
       </c>
     </row>
-    <row r="927" spans="1:3">
+    <row r="927" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A927" s="1" t="s">
         <v>2778</v>
       </c>
@@ -19753,7 +19783,7 @@
         <v>2780</v>
       </c>
     </row>
-    <row r="928" spans="1:3">
+    <row r="928" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A928" s="1" t="s">
         <v>2781</v>
       </c>
@@ -19764,7 +19794,7 @@
         <v>2783</v>
       </c>
     </row>
-    <row r="929" spans="1:3">
+    <row r="929" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A929" s="1" t="s">
         <v>2784</v>
       </c>
@@ -19775,7 +19805,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="930" spans="1:3">
+    <row r="930" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A930" s="1" t="s">
         <v>2787</v>
       </c>
@@ -19786,7 +19816,7 @@
         <v>2789</v>
       </c>
     </row>
-    <row r="931" spans="1:3">
+    <row r="931" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A931" s="1" t="s">
         <v>2790</v>
       </c>
@@ -19797,7 +19827,7 @@
         <v>2792</v>
       </c>
     </row>
-    <row r="932" spans="1:3">
+    <row r="932" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A932" s="1" t="s">
         <v>2793</v>
       </c>
@@ -19808,7 +19838,7 @@
         <v>2795</v>
       </c>
     </row>
-    <row r="933" spans="1:3">
+    <row r="933" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A933" s="1" t="s">
         <v>2796</v>
       </c>
@@ -19819,7 +19849,7 @@
         <v>2798</v>
       </c>
     </row>
-    <row r="934" spans="1:3">
+    <row r="934" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A934" s="1" t="s">
         <v>2799</v>
       </c>
@@ -19830,7 +19860,7 @@
         <v>2801</v>
       </c>
     </row>
-    <row r="935" spans="1:3">
+    <row r="935" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A935" s="1" t="s">
         <v>2802</v>
       </c>
@@ -19841,7 +19871,7 @@
         <v>2804</v>
       </c>
     </row>
-    <row r="936" spans="1:3">
+    <row r="936" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A936" s="1" t="s">
         <v>2805</v>
       </c>
@@ -19852,7 +19882,7 @@
         <v>2807</v>
       </c>
     </row>
-    <row r="937" spans="1:3">
+    <row r="937" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A937" s="1" t="s">
         <v>2808</v>
       </c>
@@ -19863,7 +19893,7 @@
         <v>2810</v>
       </c>
     </row>
-    <row r="938" spans="1:3">
+    <row r="938" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A938" s="1" t="s">
         <v>2811</v>
       </c>
@@ -19874,7 +19904,7 @@
         <v>2813</v>
       </c>
     </row>
-    <row r="939" spans="1:3">
+    <row r="939" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A939" s="1" t="s">
         <v>2814</v>
       </c>
@@ -19885,7 +19915,7 @@
         <v>2816</v>
       </c>
     </row>
-    <row r="940" spans="1:3">
+    <row r="940" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A940" s="1" t="s">
         <v>2817</v>
       </c>
@@ -19896,7 +19926,7 @@
         <v>2819</v>
       </c>
     </row>
-    <row r="941" spans="1:3">
+    <row r="941" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A941" s="1" t="s">
         <v>2820</v>
       </c>
@@ -19907,7 +19937,7 @@
         <v>2822</v>
       </c>
     </row>
-    <row r="942" spans="1:3">
+    <row r="942" spans="1:3" ht="105" x14ac:dyDescent="0.2">
       <c r="A942" s="1" t="s">
         <v>2823</v>
       </c>
@@ -19918,7 +19948,7 @@
         <v>2825</v>
       </c>
     </row>
-    <row r="943" spans="1:3">
+    <row r="943" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A943" s="1" t="s">
         <v>2826</v>
       </c>
@@ -19929,7 +19959,7 @@
         <v>2828</v>
       </c>
     </row>
-    <row r="944" spans="1:3">
+    <row r="944" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A944" s="1" t="s">
         <v>2829</v>
       </c>
@@ -19940,7 +19970,7 @@
         <v>2831</v>
       </c>
     </row>
-    <row r="945" spans="1:3">
+    <row r="945" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A945" s="1" t="s">
         <v>2832</v>
       </c>
@@ -19951,7 +19981,7 @@
         <v>2834</v>
       </c>
     </row>
-    <row r="946" spans="1:3">
+    <row r="946" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A946" s="1" t="s">
         <v>2835</v>
       </c>
@@ -19962,7 +19992,7 @@
         <v>2837</v>
       </c>
     </row>
-    <row r="947" spans="1:3">
+    <row r="947" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A947" s="1" t="s">
         <v>2838</v>
       </c>
@@ -19973,7 +20003,7 @@
         <v>2840</v>
       </c>
     </row>
-    <row r="948" spans="1:3">
+    <row r="948" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A948" s="1" t="s">
         <v>2841</v>
       </c>
@@ -19984,7 +20014,7 @@
         <v>2843</v>
       </c>
     </row>
-    <row r="949" spans="1:3">
+    <row r="949" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A949" s="1" t="s">
         <v>2844</v>
       </c>
@@ -19995,7 +20025,7 @@
         <v>2846</v>
       </c>
     </row>
-    <row r="950" spans="1:3">
+    <row r="950" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A950" s="1" t="s">
         <v>2847</v>
       </c>
@@ -20006,7 +20036,7 @@
         <v>2849</v>
       </c>
     </row>
-    <row r="951" spans="1:3">
+    <row r="951" spans="1:3" ht="90" x14ac:dyDescent="0.2">
       <c r="A951" s="1" t="s">
         <v>2850</v>
       </c>
@@ -20017,7 +20047,7 @@
         <v>2852</v>
       </c>
     </row>
-    <row r="952" spans="1:3">
+    <row r="952" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A952" s="1" t="s">
         <v>2853</v>
       </c>
@@ -20028,7 +20058,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="953" spans="1:3">
+    <row r="953" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A953" s="1" t="s">
         <v>2856</v>
       </c>
@@ -20039,7 +20069,7 @@
         <v>2858</v>
       </c>
     </row>
-    <row r="954" spans="1:3">
+    <row r="954" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A954" s="1" t="s">
         <v>2859</v>
       </c>
@@ -20050,7 +20080,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="955" spans="1:3">
+    <row r="955" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A955" s="1" t="s">
         <v>2862</v>
       </c>
@@ -20061,7 +20091,7 @@
         <v>2864</v>
       </c>
     </row>
-    <row r="956" spans="1:3">
+    <row r="956" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A956" s="1" t="s">
         <v>2865</v>
       </c>
@@ -20072,7 +20102,7 @@
         <v>2867</v>
       </c>
     </row>
-    <row r="957" spans="1:3">
+    <row r="957" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A957" s="1" t="s">
         <v>2868</v>
       </c>
@@ -20083,7 +20113,7 @@
         <v>2870</v>
       </c>
     </row>
-    <row r="958" spans="1:3">
+    <row r="958" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A958" s="1" t="s">
         <v>2871</v>
       </c>
@@ -20094,7 +20124,7 @@
         <v>2873</v>
       </c>
     </row>
-    <row r="959" spans="1:3">
+    <row r="959" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A959" s="1" t="s">
         <v>2874</v>
       </c>
@@ -20105,7 +20135,7 @@
         <v>2876</v>
       </c>
     </row>
-    <row r="960" spans="1:3">
+    <row r="960" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A960" s="1" t="s">
         <v>2877</v>
       </c>
@@ -20116,7 +20146,7 @@
         <v>2879</v>
       </c>
     </row>
-    <row r="961" spans="1:3">
+    <row r="961" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A961" s="1" t="s">
         <v>2880</v>
       </c>
@@ -20127,7 +20157,7 @@
         <v>2882</v>
       </c>
     </row>
-    <row r="962" spans="1:3">
+    <row r="962" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A962" s="1" t="s">
         <v>2883</v>
       </c>
@@ -20138,7 +20168,7 @@
         <v>2885</v>
       </c>
     </row>
-    <row r="963" spans="1:3">
+    <row r="963" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A963" s="1" t="s">
         <v>2886</v>
       </c>
@@ -20149,7 +20179,7 @@
         <v>2888</v>
       </c>
     </row>
-    <row r="964" spans="1:3">
+    <row r="964" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A964" s="1" t="s">
         <v>2889</v>
       </c>
@@ -20160,7 +20190,7 @@
         <v>2891</v>
       </c>
     </row>
-    <row r="965" spans="1:3">
+    <row r="965" spans="1:3" ht="90" x14ac:dyDescent="0.2">
       <c r="A965" s="1" t="s">
         <v>2892</v>
       </c>
@@ -20171,7 +20201,7 @@
         <v>2894</v>
       </c>
     </row>
-    <row r="966" spans="1:3">
+    <row r="966" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A966" s="1" t="s">
         <v>2895</v>
       </c>
@@ -20182,7 +20212,7 @@
         <v>2897</v>
       </c>
     </row>
-    <row r="967" spans="1:3">
+    <row r="967" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A967" s="1" t="s">
         <v>2898</v>
       </c>
@@ -20193,7 +20223,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="968" spans="1:3">
+    <row r="968" spans="1:3" ht="120" x14ac:dyDescent="0.2">
       <c r="A968" s="1" t="s">
         <v>2901</v>
       </c>
@@ -20204,7 +20234,7 @@
         <v>2903</v>
       </c>
     </row>
-    <row r="969" spans="1:3">
+    <row r="969" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A969" s="1" t="s">
         <v>2904</v>
       </c>
@@ -20215,7 +20245,7 @@
         <v>2906</v>
       </c>
     </row>
-    <row r="970" spans="1:3">
+    <row r="970" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A970" s="1" t="s">
         <v>2907</v>
       </c>
@@ -20226,7 +20256,7 @@
         <v>2909</v>
       </c>
     </row>
-    <row r="971" spans="1:3">
+    <row r="971" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A971" s="1" t="s">
         <v>2910</v>
       </c>
@@ -20237,7 +20267,7 @@
         <v>2912</v>
       </c>
     </row>
-    <row r="972" spans="1:3">
+    <row r="972" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A972" s="1" t="s">
         <v>2913</v>
       </c>
@@ -20248,7 +20278,7 @@
         <v>2915</v>
       </c>
     </row>
-    <row r="973" spans="1:3">
+    <row r="973" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A973" s="1" t="s">
         <v>2916</v>
       </c>
@@ -20259,7 +20289,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="974" spans="1:3">
+    <row r="974" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A974" s="1" t="s">
         <v>2919</v>
       </c>
@@ -20270,7 +20300,7 @@
         <v>2921</v>
       </c>
     </row>
-    <row r="975" spans="1:3">
+    <row r="975" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A975" s="1" t="s">
         <v>2922</v>
       </c>
@@ -20281,7 +20311,7 @@
         <v>2924</v>
       </c>
     </row>
-    <row r="976" spans="1:3">
+    <row r="976" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A976" s="1" t="s">
         <v>2925</v>
       </c>
@@ -20292,7 +20322,7 @@
         <v>2927</v>
       </c>
     </row>
-    <row r="977" spans="1:3">
+    <row r="977" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A977" s="1" t="s">
         <v>2928</v>
       </c>
@@ -20303,7 +20333,7 @@
         <v>2930</v>
       </c>
     </row>
-    <row r="978" spans="1:3">
+    <row r="978" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A978" s="1" t="s">
         <v>2931</v>
       </c>
@@ -20314,7 +20344,7 @@
         <v>2933</v>
       </c>
     </row>
-    <row r="979" spans="1:3">
+    <row r="979" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A979" s="1" t="s">
         <v>2934</v>
       </c>
@@ -20325,7 +20355,7 @@
         <v>2936</v>
       </c>
     </row>
-    <row r="980" spans="1:3">
+    <row r="980" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A980" s="1" t="s">
         <v>2937</v>
       </c>
@@ -20336,7 +20366,7 @@
         <v>2939</v>
       </c>
     </row>
-    <row r="981" spans="1:3">
+    <row r="981" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A981" s="1" t="s">
         <v>2940</v>
       </c>
@@ -20347,7 +20377,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="982" spans="1:3">
+    <row r="982" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A982" s="1" t="s">
         <v>2943</v>
       </c>
@@ -20358,7 +20388,7 @@
         <v>2945</v>
       </c>
     </row>
-    <row r="983" spans="1:3">
+    <row r="983" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A983" s="1" t="s">
         <v>2946</v>
       </c>
@@ -20369,7 +20399,7 @@
         <v>2948</v>
       </c>
     </row>
-    <row r="984" spans="1:3">
+    <row r="984" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A984" s="1" t="s">
         <v>2949</v>
       </c>
@@ -20380,7 +20410,7 @@
         <v>2951</v>
       </c>
     </row>
-    <row r="985" spans="1:3">
+    <row r="985" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A985" s="1" t="s">
         <v>2952</v>
       </c>
@@ -20391,7 +20421,7 @@
         <v>2954</v>
       </c>
     </row>
-    <row r="986" spans="1:3">
+    <row r="986" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A986" s="1" t="s">
         <v>2955</v>
       </c>
@@ -20402,7 +20432,7 @@
         <v>2957</v>
       </c>
     </row>
-    <row r="987" spans="1:3">
+    <row r="987" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A987" s="1" t="s">
         <v>2958</v>
       </c>
@@ -20413,7 +20443,7 @@
         <v>2960</v>
       </c>
     </row>
-    <row r="988" spans="1:3">
+    <row r="988" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A988" s="1" t="s">
         <v>2961</v>
       </c>
@@ -20424,7 +20454,7 @@
         <v>2963</v>
       </c>
     </row>
-    <row r="989" spans="1:3">
+    <row r="989" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A989" s="1" t="s">
         <v>2964</v>
       </c>
@@ -20435,7 +20465,7 @@
         <v>2966</v>
       </c>
     </row>
-    <row r="990" spans="1:3">
+    <row r="990" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A990" s="1" t="s">
         <v>2967</v>
       </c>
@@ -20446,7 +20476,7 @@
         <v>2969</v>
       </c>
     </row>
-    <row r="991" spans="1:3">
+    <row r="991" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A991" s="1" t="s">
         <v>2970</v>
       </c>
@@ -20457,7 +20487,7 @@
         <v>2972</v>
       </c>
     </row>
-    <row r="992" spans="1:3">
+    <row r="992" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A992" s="1" t="s">
         <v>2973</v>
       </c>
@@ -20468,7 +20498,7 @@
         <v>2975</v>
       </c>
     </row>
-    <row r="993" spans="1:3">
+    <row r="993" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A993" s="1" t="s">
         <v>2976</v>
       </c>
@@ -20479,7 +20509,7 @@
         <v>2978</v>
       </c>
     </row>
-    <row r="994" spans="1:3">
+    <row r="994" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A994" s="1" t="s">
         <v>2979</v>
       </c>
@@ -20490,7 +20520,7 @@
         <v>2981</v>
       </c>
     </row>
-    <row r="995" spans="1:3">
+    <row r="995" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A995" s="1" t="s">
         <v>2982</v>
       </c>
@@ -20501,7 +20531,7 @@
         <v>2984</v>
       </c>
     </row>
-    <row r="996" spans="1:3">
+    <row r="996" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A996" s="1" t="s">
         <v>2985</v>
       </c>
@@ -20512,7 +20542,7 @@
         <v>2987</v>
       </c>
     </row>
-    <row r="997" spans="1:3">
+    <row r="997" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A997" s="1" t="s">
         <v>2988</v>
       </c>
@@ -20523,7 +20553,7 @@
         <v>2990</v>
       </c>
     </row>
-    <row r="998" spans="1:3">
+    <row r="998" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A998" s="1" t="s">
         <v>2991</v>
       </c>
@@ -20534,7 +20564,7 @@
         <v>2993</v>
       </c>
     </row>
-    <row r="999" spans="1:3">
+    <row r="999" spans="1:3" ht="120" x14ac:dyDescent="0.2">
       <c r="A999" s="1" t="s">
         <v>2994</v>
       </c>
@@ -20545,7 +20575,7 @@
         <v>2996</v>
       </c>
     </row>
-    <row r="1000" spans="1:3">
+    <row r="1000" spans="1:3" ht="165" x14ac:dyDescent="0.2">
       <c r="A1000" s="1" t="s">
         <v>2997</v>
       </c>
@@ -20556,7 +20586,7 @@
         <v>2999</v>
       </c>
     </row>
-    <row r="1001" spans="1:3">
+    <row r="1001" spans="1:3" ht="135" x14ac:dyDescent="0.2">
       <c r="A1001" s="1" t="s">
         <v>3000</v>
       </c>
@@ -20567,7 +20597,7 @@
         <v>3002</v>
       </c>
     </row>
-    <row r="1002" spans="1:3">
+    <row r="1002" spans="1:3" ht="135" x14ac:dyDescent="0.2">
       <c r="A1002" s="1" t="s">
         <v>3003</v>
       </c>
@@ -20578,7 +20608,7 @@
         <v>3005</v>
       </c>
     </row>
-    <row r="1003" spans="1:3">
+    <row r="1003" spans="1:3" ht="165" x14ac:dyDescent="0.2">
       <c r="A1003" s="1" t="s">
         <v>3006</v>
       </c>
@@ -20589,7 +20619,7 @@
         <v>3008</v>
       </c>
     </row>
-    <row r="1004" spans="1:3">
+    <row r="1004" spans="1:3" ht="105" x14ac:dyDescent="0.2">
       <c r="A1004" s="1" t="s">
         <v>3009</v>
       </c>
@@ -20600,7 +20630,7 @@
         <v>3011</v>
       </c>
     </row>
-    <row r="1005" spans="1:3">
+    <row r="1005" spans="1:3" ht="195" x14ac:dyDescent="0.2">
       <c r="A1005" s="1" t="s">
         <v>3012</v>
       </c>
@@ -20611,7 +20641,7 @@
         <v>3014</v>
       </c>
     </row>
-    <row r="1006" spans="1:3">
+    <row r="1006" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A1006" s="1" t="s">
         <v>3015</v>
       </c>
@@ -20622,7 +20652,7 @@
         <v>3017</v>
       </c>
     </row>
-    <row r="1007" spans="1:3">
+    <row r="1007" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A1007" s="1" t="s">
         <v>3018</v>
       </c>
@@ -20633,7 +20663,7 @@
         <v>3020</v>
       </c>
     </row>
-    <row r="1008" spans="1:3">
+    <row r="1008" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A1008" s="1" t="s">
         <v>3021</v>
       </c>
@@ -20644,7 +20674,7 @@
         <v>3023</v>
       </c>
     </row>
-    <row r="1009" spans="1:3">
+    <row r="1009" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A1009" s="1" t="s">
         <v>3024</v>
       </c>
@@ -20655,7 +20685,7 @@
         <v>3026</v>
       </c>
     </row>
-    <row r="1010" spans="1:3">
+    <row r="1010" spans="1:3" ht="165" x14ac:dyDescent="0.2">
       <c r="A1010" s="1" t="s">
         <v>3027</v>
       </c>
@@ -20666,7 +20696,7 @@
         <v>3029</v>
       </c>
     </row>
-    <row r="1011" spans="1:3">
+    <row r="1011" spans="1:3" ht="150" x14ac:dyDescent="0.2">
       <c r="A1011" s="1" t="s">
         <v>3030</v>
       </c>
@@ -20677,7 +20707,7 @@
         <v>3032</v>
       </c>
     </row>
-    <row r="1012" spans="1:3">
+    <row r="1012" spans="1:3" ht="120" x14ac:dyDescent="0.2">
       <c r="A1012" s="1" t="s">
         <v>3033</v>
       </c>
@@ -20688,7 +20718,7 @@
         <v>3035</v>
       </c>
     </row>
-    <row r="1013" spans="1:3">
+    <row r="1013" spans="1:3" ht="165" x14ac:dyDescent="0.2">
       <c r="A1013" s="1" t="s">
         <v>3036</v>
       </c>
@@ -20699,7 +20729,7 @@
         <v>3038</v>
       </c>
     </row>
-    <row r="1014" spans="1:3">
+    <row r="1014" spans="1:3" ht="150" x14ac:dyDescent="0.2">
       <c r="A1014" s="1" t="s">
         <v>3039</v>
       </c>
@@ -20710,7 +20740,7 @@
         <v>3041</v>
       </c>
     </row>
-    <row r="1015" spans="1:3">
+    <row r="1015" spans="1:3" ht="135" x14ac:dyDescent="0.2">
       <c r="A1015" s="1" t="s">
         <v>3042</v>
       </c>
@@ -20721,7 +20751,7 @@
         <v>3044</v>
       </c>
     </row>
-    <row r="1016" spans="1:3">
+    <row r="1016" spans="1:3" ht="195" x14ac:dyDescent="0.2">
       <c r="A1016" s="1" t="s">
         <v>3045</v>
       </c>
@@ -20732,7 +20762,7 @@
         <v>3047</v>
       </c>
     </row>
-    <row r="1017" spans="1:3">
+    <row r="1017" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A1017" s="1" t="s">
         <v>3048</v>
       </c>
@@ -20744,6 +20774,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C1017" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
